--- a/MasterSheet_Experiments2021.xlsx
+++ b/MasterSheet_Experiments2021.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10613"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10111"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/AnnaMacFarlane/Library/Mobile Documents/com~apple~CloudDocs/MobileDocuments/com~apple~CloudDocs/Documents/BASS/Summer/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/AnnaMacFarlane/Library/Mobile Documents/com~apple~CloudDocs/MobileDocuments/com~apple~CloudDocs/Documents/BASS/mice-behavioral/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6069BE00-3198-2445-A5C4-D95A7D4E0C6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{813EE764-1823-1A49-A17D-C536E4E5990D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="280" yWindow="1000" windowWidth="28020" windowHeight="16440" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="280" yWindow="520" windowWidth="28020" windowHeight="16440" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Master" sheetId="9" r:id="rId1"/>
@@ -7607,15 +7607,15 @@
       </c>
       <c r="J2" s="384">
         <f ca="1">YEARFRAC(I2,TODAY())</f>
-        <v>1.7361111111111112</v>
+        <v>2.338888888888889</v>
       </c>
       <c r="K2" s="109">
         <f ca="1">_xlfn.DAYS(TODAY(),I2)</f>
-        <v>634</v>
+        <v>856</v>
       </c>
       <c r="L2" s="109">
         <f ca="1">K2/30</f>
-        <v>21.133333333333333</v>
+        <v>28.533333333333335</v>
       </c>
       <c r="M2" s="340" t="s">
         <v>547</v>
@@ -7670,15 +7670,15 @@
       </c>
       <c r="J3" s="384">
         <f t="shared" ref="J3:J23" ca="1" si="0">YEARFRAC(I3,TODAY())</f>
-        <v>1.7361111111111112</v>
+        <v>2.338888888888889</v>
       </c>
       <c r="K3" s="109">
         <f t="shared" ref="K3:K23" ca="1" si="1">_xlfn.DAYS(TODAY(),I3)</f>
-        <v>634</v>
+        <v>856</v>
       </c>
       <c r="L3" s="109">
         <f t="shared" ref="L3:L10" ca="1" si="2">K3/30</f>
-        <v>21.133333333333333</v>
+        <v>28.533333333333335</v>
       </c>
       <c r="M3" s="340" t="s">
         <v>547</v>
@@ -7733,15 +7733,15 @@
       </c>
       <c r="J4" s="384">
         <f t="shared" ca="1" si="0"/>
-        <v>1.7361111111111112</v>
+        <v>2.338888888888889</v>
       </c>
       <c r="K4" s="109">
         <f t="shared" ca="1" si="1"/>
-        <v>634</v>
+        <v>856</v>
       </c>
       <c r="L4" s="109">
         <f t="shared" ca="1" si="2"/>
-        <v>21.133333333333333</v>
+        <v>28.533333333333335</v>
       </c>
       <c r="M4" s="340" t="s">
         <v>547</v>
@@ -7796,15 +7796,15 @@
       </c>
       <c r="J5" s="384">
         <f t="shared" ca="1" si="0"/>
-        <v>1.6833333333333333</v>
+        <v>2.286111111111111</v>
       </c>
       <c r="K5" s="109">
         <f t="shared" ca="1" si="1"/>
-        <v>614</v>
+        <v>836</v>
       </c>
       <c r="L5" s="109">
         <f t="shared" ca="1" si="2"/>
-        <v>20.466666666666665</v>
+        <v>27.866666666666667</v>
       </c>
       <c r="M5" s="340" t="s">
         <v>547</v>
@@ -7859,15 +7859,15 @@
       </c>
       <c r="J6" s="384">
         <f t="shared" ca="1" si="0"/>
-        <v>1.6833333333333333</v>
+        <v>2.286111111111111</v>
       </c>
       <c r="K6" s="109">
         <f t="shared" ca="1" si="1"/>
-        <v>614</v>
+        <v>836</v>
       </c>
       <c r="L6" s="109">
         <f t="shared" ca="1" si="2"/>
-        <v>20.466666666666665</v>
+        <v>27.866666666666667</v>
       </c>
       <c r="M6" s="340" t="s">
         <v>547</v>
@@ -7922,15 +7922,15 @@
       </c>
       <c r="J7" s="384">
         <f t="shared" ca="1" si="0"/>
-        <v>1.6833333333333333</v>
+        <v>2.286111111111111</v>
       </c>
       <c r="K7" s="109">
         <f t="shared" ca="1" si="1"/>
-        <v>614</v>
+        <v>836</v>
       </c>
       <c r="L7" s="109">
         <f t="shared" ca="1" si="2"/>
-        <v>20.466666666666665</v>
+        <v>27.866666666666667</v>
       </c>
       <c r="M7" s="340" t="s">
         <v>547</v>
@@ -7985,15 +7985,15 @@
       </c>
       <c r="J8" s="384">
         <f t="shared" ca="1" si="0"/>
-        <v>1.6833333333333333</v>
+        <v>2.286111111111111</v>
       </c>
       <c r="K8" s="109">
         <f t="shared" ca="1" si="1"/>
-        <v>614</v>
+        <v>836</v>
       </c>
       <c r="L8" s="109">
         <f t="shared" ca="1" si="2"/>
-        <v>20.466666666666665</v>
+        <v>27.866666666666667</v>
       </c>
       <c r="M8" s="340" t="s">
         <v>547</v>
@@ -8048,15 +8048,15 @@
       </c>
       <c r="J9" s="384">
         <f t="shared" ca="1" si="0"/>
-        <v>1.6833333333333333</v>
+        <v>2.286111111111111</v>
       </c>
       <c r="K9" s="109">
         <f t="shared" ca="1" si="1"/>
-        <v>614</v>
+        <v>836</v>
       </c>
       <c r="L9" s="109">
         <f t="shared" ca="1" si="2"/>
-        <v>20.466666666666665</v>
+        <v>27.866666666666667</v>
       </c>
       <c r="M9" s="340" t="s">
         <v>547</v>
@@ -8111,15 +8111,15 @@
       </c>
       <c r="J10" s="384">
         <f t="shared" ca="1" si="0"/>
-        <v>1.6833333333333333</v>
+        <v>2.286111111111111</v>
       </c>
       <c r="K10" s="109">
         <f t="shared" ca="1" si="1"/>
-        <v>614</v>
+        <v>836</v>
       </c>
       <c r="L10" s="109">
         <f t="shared" ca="1" si="2"/>
-        <v>20.466666666666665</v>
+        <v>27.866666666666667</v>
       </c>
       <c r="M10" s="340" t="s">
         <v>547</v>
@@ -8174,15 +8174,15 @@
       </c>
       <c r="J11" s="603">
         <f t="shared" ca="1" si="0"/>
-        <v>1.6833333333333333</v>
+        <v>2.286111111111111</v>
       </c>
       <c r="K11" s="601">
         <f t="shared" ca="1" si="1"/>
-        <v>614</v>
+        <v>836</v>
       </c>
       <c r="L11" s="601">
         <f ca="1">K11/30</f>
-        <v>20.466666666666665</v>
+        <v>27.866666666666667</v>
       </c>
       <c r="M11" s="604" t="s">
         <v>547</v>
@@ -8233,15 +8233,15 @@
       </c>
       <c r="J12" s="384">
         <f t="shared" ref="J12" ca="1" si="4">YEARFRAC(I12,TODAY())</f>
-        <v>1.6833333333333333</v>
+        <v>2.286111111111111</v>
       </c>
       <c r="K12" s="109">
         <f t="shared" ref="K12" ca="1" si="5">_xlfn.DAYS(TODAY(),I12)</f>
-        <v>614</v>
+        <v>836</v>
       </c>
       <c r="L12" s="109">
         <f ca="1">K12/30</f>
-        <v>20.466666666666665</v>
+        <v>27.866666666666667</v>
       </c>
       <c r="M12" s="340" t="s">
         <v>547</v>
@@ -8296,15 +8296,15 @@
       </c>
       <c r="J13" s="384">
         <f t="shared" ca="1" si="0"/>
-        <v>1.6666666666666667</v>
+        <v>2.2694444444444444</v>
       </c>
       <c r="K13" s="109">
         <f t="shared" ca="1" si="1"/>
-        <v>608</v>
+        <v>830</v>
       </c>
       <c r="L13" s="109">
         <f t="shared" ref="L13:L18" ca="1" si="6">K13/30</f>
-        <v>20.266666666666666</v>
+        <v>27.666666666666668</v>
       </c>
       <c r="M13" s="340" t="s">
         <v>547</v>
@@ -8359,15 +8359,15 @@
       </c>
       <c r="J14" s="384">
         <f t="shared" ca="1" si="0"/>
-        <v>1.6666666666666667</v>
+        <v>2.2694444444444444</v>
       </c>
       <c r="K14" s="109">
         <f t="shared" ca="1" si="1"/>
-        <v>608</v>
+        <v>830</v>
       </c>
       <c r="L14" s="109">
         <f t="shared" ca="1" si="6"/>
-        <v>20.266666666666666</v>
+        <v>27.666666666666668</v>
       </c>
       <c r="M14" s="340" t="s">
         <v>547</v>
@@ -8422,15 +8422,15 @@
       </c>
       <c r="J15" s="384">
         <f t="shared" ca="1" si="0"/>
-        <v>1.6666666666666667</v>
+        <v>2.2694444444444444</v>
       </c>
       <c r="K15" s="109">
         <f t="shared" ca="1" si="1"/>
-        <v>608</v>
+        <v>830</v>
       </c>
       <c r="L15" s="109">
         <f t="shared" ca="1" si="6"/>
-        <v>20.266666666666666</v>
+        <v>27.666666666666668</v>
       </c>
       <c r="M15" s="340" t="s">
         <v>547</v>
@@ -8485,15 +8485,15 @@
       </c>
       <c r="J16" s="384">
         <f t="shared" ca="1" si="0"/>
-        <v>1.6666666666666667</v>
+        <v>2.2694444444444444</v>
       </c>
       <c r="K16" s="109">
         <f t="shared" ca="1" si="1"/>
-        <v>608</v>
+        <v>830</v>
       </c>
       <c r="L16" s="109">
         <f t="shared" ca="1" si="6"/>
-        <v>20.266666666666666</v>
+        <v>27.666666666666668</v>
       </c>
       <c r="M16" s="340" t="s">
         <v>547</v>
@@ -8548,15 +8548,15 @@
       </c>
       <c r="J17" s="384">
         <f t="shared" ca="1" si="0"/>
-        <v>1.6666666666666667</v>
+        <v>2.2694444444444444</v>
       </c>
       <c r="K17" s="109">
         <f t="shared" ca="1" si="1"/>
-        <v>608</v>
+        <v>830</v>
       </c>
       <c r="L17" s="109">
         <f t="shared" ca="1" si="6"/>
-        <v>20.266666666666666</v>
+        <v>27.666666666666668</v>
       </c>
       <c r="M17" s="340" t="s">
         <v>547</v>
@@ -8611,15 +8611,15 @@
       </c>
       <c r="J18" s="384">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>2.6027777777777779</v>
       </c>
       <c r="K18" s="109">
         <f t="shared" ca="1" si="1"/>
-        <v>731</v>
+        <v>953</v>
       </c>
       <c r="L18" s="443">
         <f t="shared" ca="1" si="6"/>
-        <v>24.366666666666667</v>
+        <v>31.766666666666666</v>
       </c>
       <c r="M18" s="340" t="s">
         <v>547</v>
@@ -8672,15 +8672,15 @@
       </c>
       <c r="J19" s="391">
         <f t="shared" ca="1" si="0"/>
-        <v>1.1555555555555554</v>
+        <v>1.7583333333333333</v>
       </c>
       <c r="K19" s="392">
         <f t="shared" ca="1" si="1"/>
-        <v>422</v>
+        <v>644</v>
       </c>
       <c r="L19" s="392">
         <f t="shared" ref="L19:L23" ca="1" si="7">K19/30</f>
-        <v>14.066666666666666</v>
+        <v>21.466666666666665</v>
       </c>
       <c r="M19" s="397" t="s">
         <v>547</v>
@@ -8728,15 +8728,15 @@
       </c>
       <c r="J20" s="387">
         <f t="shared" ca="1" si="0"/>
-        <v>1.1555555555555554</v>
+        <v>1.7583333333333333</v>
       </c>
       <c r="K20" s="388">
         <f t="shared" ca="1" si="1"/>
-        <v>422</v>
+        <v>644</v>
       </c>
       <c r="L20" s="388">
         <f t="shared" ca="1" si="7"/>
-        <v>14.066666666666666</v>
+        <v>21.466666666666665</v>
       </c>
       <c r="M20" s="397" t="s">
         <v>547</v>
@@ -8784,15 +8784,15 @@
       </c>
       <c r="J21" s="387">
         <f t="shared" ca="1" si="0"/>
-        <v>1.1555555555555554</v>
+        <v>1.7583333333333333</v>
       </c>
       <c r="K21" s="388">
         <f t="shared" ca="1" si="1"/>
-        <v>422</v>
+        <v>644</v>
       </c>
       <c r="L21" s="388">
         <f t="shared" ca="1" si="7"/>
-        <v>14.066666666666666</v>
+        <v>21.466666666666665</v>
       </c>
       <c r="M21" s="397" t="s">
         <v>547</v>
@@ -8840,15 +8840,15 @@
       </c>
       <c r="J22" s="387">
         <f t="shared" ca="1" si="0"/>
-        <v>1.1555555555555554</v>
+        <v>1.7583333333333333</v>
       </c>
       <c r="K22" s="388">
         <f t="shared" ca="1" si="1"/>
-        <v>422</v>
+        <v>644</v>
       </c>
       <c r="L22" s="388">
         <f t="shared" ca="1" si="7"/>
-        <v>14.066666666666666</v>
+        <v>21.466666666666665</v>
       </c>
       <c r="M22" s="397" t="s">
         <v>547</v>
@@ -8896,15 +8896,15 @@
       </c>
       <c r="J23" s="387">
         <f t="shared" ca="1" si="0"/>
-        <v>1.1555555555555554</v>
+        <v>1.7583333333333333</v>
       </c>
       <c r="K23" s="388">
         <f t="shared" ca="1" si="1"/>
-        <v>422</v>
+        <v>644</v>
       </c>
       <c r="L23" s="388">
         <f t="shared" ca="1" si="7"/>
-        <v>14.066666666666666</v>
+        <v>21.466666666666665</v>
       </c>
       <c r="M23" s="398" t="s">
         <v>547</v>
@@ -9076,15 +9076,15 @@
       </c>
       <c r="I2" s="621">
         <f t="shared" ref="I2:I3" ca="1" si="0">YEARFRAC(H2,TODAY())</f>
-        <v>1.0166666666666666</v>
+        <v>1.6194444444444445</v>
       </c>
       <c r="J2" s="621">
         <f t="shared" ref="J2:J3" ca="1" si="1">_xlfn.DAYS(TODAY(),H2)</f>
-        <v>371</v>
+        <v>593</v>
       </c>
       <c r="K2" s="621">
         <f t="shared" ref="K2:K3" ca="1" si="2">J2/30</f>
-        <v>12.366666666666667</v>
+        <v>19.766666666666666</v>
       </c>
       <c r="L2" s="328" t="s">
         <v>14</v>
@@ -9116,15 +9116,15 @@
       </c>
       <c r="I3" s="621">
         <f t="shared" ca="1" si="0"/>
-        <v>0.88611111111111107</v>
+        <v>1.4888888888888889</v>
       </c>
       <c r="J3" s="621">
         <f t="shared" ca="1" si="1"/>
-        <v>323</v>
+        <v>545</v>
       </c>
       <c r="K3" s="621">
         <f t="shared" ca="1" si="2"/>
-        <v>10.766666666666667</v>
+        <v>18.166666666666668</v>
       </c>
       <c r="L3" s="328" t="s">
         <v>14</v>
@@ -9156,15 +9156,15 @@
       </c>
       <c r="I4" s="621">
         <f ca="1">YEARFRAC(H4,TODAY())</f>
-        <v>0.62777777777777777</v>
+        <v>1.2305555555555556</v>
       </c>
       <c r="J4" s="621">
         <f ca="1">_xlfn.DAYS(TODAY(),H4)</f>
-        <v>228</v>
+        <v>450</v>
       </c>
       <c r="K4" s="621">
         <f ca="1">J4/30</f>
-        <v>7.6</v>
+        <v>15</v>
       </c>
       <c r="L4" s="328" t="s">
         <v>14</v>
@@ -9196,15 +9196,15 @@
       </c>
       <c r="I5" s="621">
         <f t="shared" ref="I5:I10" ca="1" si="3">YEARFRAC(H5,TODAY())</f>
-        <v>0.62777777777777777</v>
+        <v>1.2305555555555556</v>
       </c>
       <c r="J5" s="621">
         <f t="shared" ref="J5:J10" ca="1" si="4">_xlfn.DAYS(TODAY(),H5)</f>
-        <v>228</v>
+        <v>450</v>
       </c>
       <c r="K5" s="621">
         <f t="shared" ref="K5:K10" ca="1" si="5">J5/30</f>
-        <v>7.6</v>
+        <v>15</v>
       </c>
       <c r="L5" s="328" t="s">
         <v>14</v>
@@ -9236,15 +9236,15 @@
       </c>
       <c r="I6" s="621">
         <f t="shared" ca="1" si="3"/>
-        <v>0.62777777777777777</v>
+        <v>1.2305555555555556</v>
       </c>
       <c r="J6" s="621">
         <f t="shared" ca="1" si="4"/>
-        <v>228</v>
+        <v>450</v>
       </c>
       <c r="K6" s="621">
         <f t="shared" ca="1" si="5"/>
-        <v>7.6</v>
+        <v>15</v>
       </c>
       <c r="L6" s="328" t="s">
         <v>14</v>
@@ -9276,15 +9276,15 @@
       </c>
       <c r="I7" s="621">
         <f t="shared" ca="1" si="3"/>
-        <v>0.62777777777777777</v>
+        <v>1.2305555555555556</v>
       </c>
       <c r="J7" s="621">
         <f t="shared" ca="1" si="4"/>
-        <v>228</v>
+        <v>450</v>
       </c>
       <c r="K7" s="621">
         <f t="shared" ca="1" si="5"/>
-        <v>7.6</v>
+        <v>15</v>
       </c>
       <c r="L7" s="328" t="s">
         <v>14</v>
@@ -9316,15 +9316,15 @@
       </c>
       <c r="I8" s="621">
         <f t="shared" ca="1" si="3"/>
-        <v>0.62777777777777777</v>
+        <v>1.2305555555555556</v>
       </c>
       <c r="J8" s="621">
         <f t="shared" ca="1" si="4"/>
-        <v>228</v>
+        <v>450</v>
       </c>
       <c r="K8" s="621">
         <f t="shared" ca="1" si="5"/>
-        <v>7.6</v>
+        <v>15</v>
       </c>
       <c r="L8" s="328" t="s">
         <v>14</v>
@@ -9356,15 +9356,15 @@
       </c>
       <c r="I9" s="621">
         <f t="shared" ca="1" si="3"/>
-        <v>0.56388888888888888</v>
+        <v>1.1666666666666667</v>
       </c>
       <c r="J9" s="621">
         <f t="shared" ca="1" si="4"/>
-        <v>205</v>
+        <v>427</v>
       </c>
       <c r="K9" s="621">
         <f t="shared" ca="1" si="5"/>
-        <v>6.833333333333333</v>
+        <v>14.233333333333333</v>
       </c>
       <c r="L9" s="328" t="s">
         <v>14</v>
@@ -9396,15 +9396,15 @@
       </c>
       <c r="I10" s="621">
         <f t="shared" ca="1" si="3"/>
-        <v>0.56388888888888888</v>
+        <v>1.1666666666666667</v>
       </c>
       <c r="J10" s="621">
         <f t="shared" ca="1" si="4"/>
-        <v>205</v>
+        <v>427</v>
       </c>
       <c r="K10" s="621">
         <f t="shared" ca="1" si="5"/>
-        <v>6.833333333333333</v>
+        <v>14.233333333333333</v>
       </c>
       <c r="L10" s="328" t="s">
         <v>14</v>
@@ -9533,15 +9533,15 @@
       </c>
       <c r="I2" s="110">
         <f t="shared" ref="I2:I8" ca="1" si="0">YEARFRAC(H2,TODAY())</f>
-        <v>0.8833333333333333</v>
+        <v>1.4861111111111112</v>
       </c>
       <c r="J2" s="110">
         <f t="shared" ref="J2:J8" ca="1" si="1">_xlfn.DAYS(TODAY(),H2)</f>
-        <v>322</v>
+        <v>544</v>
       </c>
       <c r="K2" s="110">
         <f t="shared" ref="K2:K8" ca="1" si="2">J2/30</f>
-        <v>10.733333333333333</v>
+        <v>18.133333333333333</v>
       </c>
       <c r="L2" s="340" t="s">
         <v>547</v>
@@ -9581,15 +9581,15 @@
       </c>
       <c r="I3" s="110">
         <f t="shared" ca="1" si="0"/>
-        <v>0.87222222222222223</v>
+        <v>1.4750000000000001</v>
       </c>
       <c r="J3" s="110">
         <f t="shared" ca="1" si="1"/>
-        <v>318</v>
+        <v>540</v>
       </c>
       <c r="K3" s="110">
         <f t="shared" ca="1" si="2"/>
-        <v>10.6</v>
+        <v>18</v>
       </c>
       <c r="L3" s="340" t="s">
         <v>547</v>
@@ -9629,15 +9629,15 @@
       </c>
       <c r="I4" s="110">
         <f t="shared" ca="1" si="0"/>
-        <v>0.84722222222222221</v>
+        <v>1.45</v>
       </c>
       <c r="J4" s="110">
         <f t="shared" ca="1" si="1"/>
-        <v>308</v>
+        <v>530</v>
       </c>
       <c r="K4" s="110">
         <f t="shared" ca="1" si="2"/>
-        <v>10.266666666666667</v>
+        <v>17.666666666666668</v>
       </c>
       <c r="L4" s="340" t="s">
         <v>547</v>
@@ -9677,15 +9677,15 @@
       </c>
       <c r="I5" s="576">
         <f t="shared" ca="1" si="0"/>
-        <v>0.89444444444444449</v>
+        <v>1.4972222222222222</v>
       </c>
       <c r="J5" s="576">
         <f t="shared" ca="1" si="1"/>
-        <v>326</v>
+        <v>548</v>
       </c>
       <c r="K5" s="576">
         <f t="shared" ca="1" si="2"/>
-        <v>10.866666666666667</v>
+        <v>18.266666666666666</v>
       </c>
       <c r="L5" s="578" t="s">
         <v>14</v>
@@ -9725,15 +9725,15 @@
       </c>
       <c r="I6" s="357">
         <f t="shared" ca="1" si="0"/>
-        <v>0.89444444444444449</v>
+        <v>1.4972222222222222</v>
       </c>
       <c r="J6" s="357">
         <f t="shared" ca="1" si="1"/>
-        <v>326</v>
+        <v>548</v>
       </c>
       <c r="K6" s="357">
         <f t="shared" ca="1" si="2"/>
-        <v>10.866666666666667</v>
+        <v>18.266666666666666</v>
       </c>
       <c r="L6" s="328" t="s">
         <v>14</v>
@@ -9773,15 +9773,15 @@
       </c>
       <c r="I7" s="357">
         <f t="shared" ca="1" si="0"/>
-        <v>0.89444444444444449</v>
+        <v>1.4972222222222222</v>
       </c>
       <c r="J7" s="357">
         <f t="shared" ca="1" si="1"/>
-        <v>326</v>
+        <v>548</v>
       </c>
       <c r="K7" s="357">
         <f t="shared" ca="1" si="2"/>
-        <v>10.866666666666667</v>
+        <v>18.266666666666666</v>
       </c>
       <c r="L7" s="328" t="s">
         <v>14</v>
@@ -9821,15 +9821,15 @@
       </c>
       <c r="I8" s="357">
         <f t="shared" ca="1" si="0"/>
-        <v>0.89444444444444449</v>
+        <v>1.4972222222222222</v>
       </c>
       <c r="J8" s="357">
         <f t="shared" ca="1" si="1"/>
-        <v>326</v>
+        <v>548</v>
       </c>
       <c r="K8" s="357">
         <f t="shared" ca="1" si="2"/>
-        <v>10.866666666666667</v>
+        <v>18.266666666666666</v>
       </c>
       <c r="L8" s="328" t="s">
         <v>14</v>
@@ -9958,15 +9958,15 @@
       </c>
       <c r="I2" s="357">
         <f t="shared" ref="I2:I6" ca="1" si="0">YEARFRAC(H2,TODAY())</f>
-        <v>0.83611111111111114</v>
+        <v>1.4388888888888889</v>
       </c>
       <c r="J2" s="357">
         <f t="shared" ref="J2:J6" ca="1" si="1">_xlfn.DAYS(TODAY(),H2)</f>
-        <v>304</v>
+        <v>526</v>
       </c>
       <c r="K2" s="357">
         <f t="shared" ref="K2:K6" ca="1" si="2">J2/30</f>
-        <v>10.133333333333333</v>
+        <v>17.533333333333335</v>
       </c>
       <c r="L2" s="397" t="s">
         <v>547</v>
@@ -10004,15 +10004,15 @@
       </c>
       <c r="I3" s="357">
         <f t="shared" ca="1" si="0"/>
-        <v>0.83611111111111114</v>
+        <v>1.4388888888888889</v>
       </c>
       <c r="J3" s="357">
         <f t="shared" ca="1" si="1"/>
-        <v>304</v>
+        <v>526</v>
       </c>
       <c r="K3" s="357">
         <f t="shared" ca="1" si="2"/>
-        <v>10.133333333333333</v>
+        <v>17.533333333333335</v>
       </c>
       <c r="L3" s="397" t="s">
         <v>547</v>
@@ -10050,15 +10050,15 @@
       </c>
       <c r="I4" s="357">
         <f t="shared" ca="1" si="0"/>
-        <v>0.83611111111111114</v>
+        <v>1.4388888888888889</v>
       </c>
       <c r="J4" s="357">
         <f t="shared" ca="1" si="1"/>
-        <v>304</v>
+        <v>526</v>
       </c>
       <c r="K4" s="357">
         <f t="shared" ca="1" si="2"/>
-        <v>10.133333333333333</v>
+        <v>17.533333333333335</v>
       </c>
       <c r="L4" s="397" t="s">
         <v>547</v>
@@ -10096,15 +10096,15 @@
       </c>
       <c r="I5" s="357">
         <f t="shared" ca="1" si="0"/>
-        <v>0.83611111111111114</v>
+        <v>1.4388888888888889</v>
       </c>
       <c r="J5" s="357">
         <f t="shared" ca="1" si="1"/>
-        <v>304</v>
+        <v>526</v>
       </c>
       <c r="K5" s="357">
         <f t="shared" ca="1" si="2"/>
-        <v>10.133333333333333</v>
+        <v>17.533333333333335</v>
       </c>
       <c r="L5" s="397" t="s">
         <v>547</v>
@@ -10142,15 +10142,15 @@
       </c>
       <c r="I6" s="357">
         <f t="shared" ca="1" si="0"/>
-        <v>0.83611111111111114</v>
+        <v>1.4388888888888889</v>
       </c>
       <c r="J6" s="357">
         <f t="shared" ca="1" si="1"/>
-        <v>304</v>
+        <v>526</v>
       </c>
       <c r="K6" s="357">
         <f t="shared" ca="1" si="2"/>
-        <v>10.133333333333333</v>
+        <v>17.533333333333335</v>
       </c>
       <c r="L6" s="397" t="s">
         <v>547</v>
@@ -11166,15 +11166,15 @@
       </c>
       <c r="I2" s="595">
         <f ca="1">YEARFRAC(H2,TODAY())</f>
-        <v>0.76388888888888884</v>
+        <v>1.3666666666666667</v>
       </c>
       <c r="J2" s="582">
         <f ca="1">_xlfn.DAYS(TODAY(),H2)</f>
-        <v>278</v>
+        <v>500</v>
       </c>
       <c r="K2" s="582">
         <f ca="1">(J2/30)</f>
-        <v>9.2666666666666675</v>
+        <v>16.666666666666668</v>
       </c>
       <c r="L2" s="397" t="s">
         <v>547</v>
@@ -11214,15 +11214,15 @@
       </c>
       <c r="I3" s="595">
         <f t="shared" ref="I3:I20" ca="1" si="1">YEARFRAC(H3,TODAY())</f>
-        <v>0.76388888888888884</v>
+        <v>1.3666666666666667</v>
       </c>
       <c r="J3" s="582">
         <f t="shared" ref="J3:J20" ca="1" si="2">_xlfn.DAYS(TODAY(),H3)</f>
-        <v>278</v>
+        <v>500</v>
       </c>
       <c r="K3" s="582">
         <f t="shared" ref="K3:K20" ca="1" si="3">(J3/30)</f>
-        <v>9.2666666666666675</v>
+        <v>16.666666666666668</v>
       </c>
       <c r="L3" s="397" t="s">
         <v>547</v>
@@ -11262,15 +11262,15 @@
       </c>
       <c r="I4" s="595">
         <f t="shared" ca="1" si="1"/>
-        <v>0.76388888888888884</v>
+        <v>1.3666666666666667</v>
       </c>
       <c r="J4" s="582">
         <f t="shared" ca="1" si="2"/>
-        <v>278</v>
+        <v>500</v>
       </c>
       <c r="K4" s="582">
         <f t="shared" ca="1" si="3"/>
-        <v>9.2666666666666675</v>
+        <v>16.666666666666668</v>
       </c>
       <c r="L4" s="397" t="s">
         <v>547</v>
@@ -11310,15 +11310,15 @@
       </c>
       <c r="I5" s="595">
         <f t="shared" ca="1" si="1"/>
-        <v>0.76388888888888884</v>
+        <v>1.3666666666666667</v>
       </c>
       <c r="J5" s="582">
         <f t="shared" ca="1" si="2"/>
-        <v>278</v>
+        <v>500</v>
       </c>
       <c r="K5" s="582">
         <f t="shared" ca="1" si="3"/>
-        <v>9.2666666666666675</v>
+        <v>16.666666666666668</v>
       </c>
       <c r="L5" s="598" t="s">
         <v>14</v>
@@ -11358,15 +11358,15 @@
       </c>
       <c r="I6" s="595">
         <f t="shared" ca="1" si="1"/>
-        <v>0.76388888888888884</v>
+        <v>1.3666666666666667</v>
       </c>
       <c r="J6" s="582">
         <f t="shared" ca="1" si="2"/>
-        <v>278</v>
+        <v>500</v>
       </c>
       <c r="K6" s="582">
         <f t="shared" ca="1" si="3"/>
-        <v>9.2666666666666675</v>
+        <v>16.666666666666668</v>
       </c>
       <c r="L6" s="598" t="s">
         <v>14</v>
@@ -11406,15 +11406,15 @@
       </c>
       <c r="I7" s="595">
         <f t="shared" ca="1" si="1"/>
-        <v>0.73055555555555551</v>
+        <v>1.3333333333333333</v>
       </c>
       <c r="J7" s="582">
         <f t="shared" ca="1" si="2"/>
-        <v>266</v>
+        <v>488</v>
       </c>
       <c r="K7" s="582">
         <f t="shared" ca="1" si="3"/>
-        <v>8.8666666666666671</v>
+        <v>16.266666666666666</v>
       </c>
       <c r="L7" s="598" t="s">
         <v>14</v>
@@ -11454,15 +11454,15 @@
       </c>
       <c r="I8" s="595">
         <f t="shared" ca="1" si="1"/>
-        <v>0.73055555555555551</v>
+        <v>1.3333333333333333</v>
       </c>
       <c r="J8" s="582">
         <f t="shared" ca="1" si="2"/>
-        <v>266</v>
+        <v>488</v>
       </c>
       <c r="K8" s="582">
         <f t="shared" ca="1" si="3"/>
-        <v>8.8666666666666671</v>
+        <v>16.266666666666666</v>
       </c>
       <c r="L8" s="598" t="s">
         <v>14</v>
@@ -11502,15 +11502,15 @@
       </c>
       <c r="I9" s="595">
         <f t="shared" ca="1" si="1"/>
-        <v>0.73055555555555551</v>
+        <v>1.3333333333333333</v>
       </c>
       <c r="J9" s="582">
         <f t="shared" ca="1" si="2"/>
-        <v>266</v>
+        <v>488</v>
       </c>
       <c r="K9" s="582">
         <f t="shared" ca="1" si="3"/>
-        <v>8.8666666666666671</v>
+        <v>16.266666666666666</v>
       </c>
       <c r="L9" s="598" t="s">
         <v>14</v>
@@ -11550,15 +11550,15 @@
       </c>
       <c r="I10" s="595">
         <f t="shared" ca="1" si="1"/>
-        <v>0.73055555555555551</v>
+        <v>1.3333333333333333</v>
       </c>
       <c r="J10" s="582">
         <f t="shared" ca="1" si="2"/>
-        <v>266</v>
+        <v>488</v>
       </c>
       <c r="K10" s="582">
         <f t="shared" ca="1" si="3"/>
-        <v>8.8666666666666671</v>
+        <v>16.266666666666666</v>
       </c>
       <c r="L10" s="598" t="s">
         <v>14</v>
@@ -11598,15 +11598,15 @@
       </c>
       <c r="I11" s="595">
         <f t="shared" ca="1" si="1"/>
-        <v>0.73055555555555551</v>
+        <v>1.3333333333333333</v>
       </c>
       <c r="J11" s="582">
         <f t="shared" ca="1" si="2"/>
-        <v>266</v>
+        <v>488</v>
       </c>
       <c r="K11" s="582">
         <f t="shared" ca="1" si="3"/>
-        <v>8.8666666666666671</v>
+        <v>16.266666666666666</v>
       </c>
       <c r="L11" s="598" t="s">
         <v>14</v>
@@ -11647,15 +11647,15 @@
       </c>
       <c r="I12" s="596">
         <f t="shared" ca="1" si="1"/>
-        <v>0.7583333333333333</v>
+        <v>1.3611111111111112</v>
       </c>
       <c r="J12" s="588">
         <f t="shared" ca="1" si="2"/>
-        <v>276</v>
+        <v>498</v>
       </c>
       <c r="K12" s="597">
         <f t="shared" ca="1" si="3"/>
-        <v>9.1999999999999993</v>
+        <v>16.600000000000001</v>
       </c>
       <c r="L12" s="397" t="s">
         <v>547</v>
@@ -11696,15 +11696,15 @@
       </c>
       <c r="I13" s="596">
         <f t="shared" ca="1" si="1"/>
-        <v>0.7583333333333333</v>
+        <v>1.3611111111111112</v>
       </c>
       <c r="J13" s="588">
         <f t="shared" ca="1" si="2"/>
-        <v>276</v>
+        <v>498</v>
       </c>
       <c r="K13" s="597">
         <f t="shared" ca="1" si="3"/>
-        <v>9.1999999999999993</v>
+        <v>16.600000000000001</v>
       </c>
       <c r="L13" s="397" t="s">
         <v>547</v>
@@ -11745,15 +11745,15 @@
       </c>
       <c r="I14" s="596">
         <f t="shared" ca="1" si="1"/>
-        <v>0.7583333333333333</v>
+        <v>1.3611111111111112</v>
       </c>
       <c r="J14" s="588">
         <f t="shared" ca="1" si="2"/>
-        <v>276</v>
+        <v>498</v>
       </c>
       <c r="K14" s="597">
         <f t="shared" ca="1" si="3"/>
-        <v>9.1999999999999993</v>
+        <v>16.600000000000001</v>
       </c>
       <c r="L14" s="397" t="s">
         <v>547</v>
@@ -11794,15 +11794,15 @@
       </c>
       <c r="I15" s="596">
         <f t="shared" ca="1" si="1"/>
-        <v>0.7583333333333333</v>
+        <v>1.3611111111111112</v>
       </c>
       <c r="J15" s="588">
         <f t="shared" ca="1" si="2"/>
-        <v>276</v>
+        <v>498</v>
       </c>
       <c r="K15" s="597">
         <f t="shared" ca="1" si="3"/>
-        <v>9.1999999999999993</v>
+        <v>16.600000000000001</v>
       </c>
       <c r="L15" s="397" t="s">
         <v>547</v>
@@ -11843,15 +11843,15 @@
       </c>
       <c r="I16" s="596">
         <f t="shared" ca="1" si="1"/>
-        <v>0.7583333333333333</v>
+        <v>1.3611111111111112</v>
       </c>
       <c r="J16" s="588">
         <f t="shared" ca="1" si="2"/>
-        <v>276</v>
+        <v>498</v>
       </c>
       <c r="K16" s="597">
         <f t="shared" ca="1" si="3"/>
-        <v>9.1999999999999993</v>
+        <v>16.600000000000001</v>
       </c>
       <c r="L16" s="598" t="s">
         <v>14</v>
@@ -11892,15 +11892,15 @@
       </c>
       <c r="I17" s="596">
         <f t="shared" ca="1" si="1"/>
-        <v>0.7583333333333333</v>
+        <v>1.3611111111111112</v>
       </c>
       <c r="J17" s="588">
         <f t="shared" ca="1" si="2"/>
-        <v>276</v>
+        <v>498</v>
       </c>
       <c r="K17" s="597">
         <f t="shared" ca="1" si="3"/>
-        <v>9.1999999999999993</v>
+        <v>16.600000000000001</v>
       </c>
       <c r="L17" s="598" t="s">
         <v>14</v>
@@ -11941,15 +11941,15 @@
       </c>
       <c r="I18" s="596">
         <f t="shared" ca="1" si="1"/>
-        <v>0.7583333333333333</v>
+        <v>1.3611111111111112</v>
       </c>
       <c r="J18" s="588">
         <f t="shared" ca="1" si="2"/>
-        <v>276</v>
+        <v>498</v>
       </c>
       <c r="K18" s="597">
         <f t="shared" ca="1" si="3"/>
-        <v>9.1999999999999993</v>
+        <v>16.600000000000001</v>
       </c>
       <c r="L18" s="598" t="s">
         <v>14</v>
@@ -11990,15 +11990,15 @@
       </c>
       <c r="I19" s="596">
         <f t="shared" ca="1" si="1"/>
-        <v>0.7583333333333333</v>
+        <v>1.3611111111111112</v>
       </c>
       <c r="J19" s="588">
         <f t="shared" ca="1" si="2"/>
-        <v>276</v>
+        <v>498</v>
       </c>
       <c r="K19" s="597">
         <f t="shared" ca="1" si="3"/>
-        <v>9.1999999999999993</v>
+        <v>16.600000000000001</v>
       </c>
       <c r="L19" s="598" t="s">
         <v>14</v>
@@ -12039,15 +12039,15 @@
       </c>
       <c r="I20" s="596">
         <f t="shared" ca="1" si="1"/>
-        <v>0.7583333333333333</v>
+        <v>1.3611111111111112</v>
       </c>
       <c r="J20" s="588">
         <f t="shared" ca="1" si="2"/>
-        <v>276</v>
+        <v>498</v>
       </c>
       <c r="K20" s="597">
         <f t="shared" ca="1" si="3"/>
-        <v>9.1999999999999993</v>
+        <v>16.600000000000001</v>
       </c>
       <c r="L20" s="607" t="s">
         <v>14</v>
@@ -28598,11 +28598,11 @@
       </c>
       <c r="I2" s="145">
         <f t="shared" ref="I2:I7" ca="1" si="0">YEARFRAC(H2,TODAY())</f>
-        <v>2.1916666666666669</v>
+        <v>2.7944444444444443</v>
       </c>
       <c r="J2" s="141">
         <f t="shared" ref="J2:J7" ca="1" si="1">_xlfn.DAYS(TODAY(),H2)</f>
-        <v>801</v>
+        <v>1023</v>
       </c>
       <c r="K2" s="565">
         <f>_xlfn.DAYS(M2,H2)/30</f>
@@ -28645,11 +28645,11 @@
       </c>
       <c r="I3" s="146">
         <f t="shared" ca="1" si="0"/>
-        <v>1.9055555555555554</v>
+        <v>2.5083333333333333</v>
       </c>
       <c r="J3" s="142">
         <f t="shared" ca="1" si="1"/>
-        <v>696</v>
+        <v>918</v>
       </c>
       <c r="K3" s="565">
         <f t="shared" ref="K3:K7" si="2">_xlfn.DAYS(M3,H3)/30</f>
@@ -28692,11 +28692,11 @@
       </c>
       <c r="I4" s="140">
         <f t="shared" ca="1" si="0"/>
-        <v>1.6055555555555556</v>
+        <v>2.2083333333333335</v>
       </c>
       <c r="J4" s="140">
         <f t="shared" ca="1" si="1"/>
-        <v>586</v>
+        <v>808</v>
       </c>
       <c r="K4" s="565">
         <f t="shared" si="2"/>
@@ -28739,11 +28739,11 @@
       </c>
       <c r="I5" s="146">
         <f t="shared" ca="1" si="0"/>
-        <v>2.1916666666666669</v>
+        <v>2.7944444444444443</v>
       </c>
       <c r="J5" s="142">
         <f t="shared" ca="1" si="1"/>
-        <v>801</v>
+        <v>1023</v>
       </c>
       <c r="K5" s="565">
         <f t="shared" si="2"/>
@@ -28786,11 +28786,11 @@
       </c>
       <c r="I6" s="146">
         <f t="shared" ca="1" si="0"/>
-        <v>1.5</v>
+        <v>2.1027777777777779</v>
       </c>
       <c r="J6" s="142">
         <f t="shared" ca="1" si="1"/>
-        <v>547</v>
+        <v>769</v>
       </c>
       <c r="K6" s="565">
         <f t="shared" si="2"/>
@@ -28833,11 +28833,11 @@
       </c>
       <c r="I7" s="147">
         <f t="shared" ca="1" si="0"/>
-        <v>1.5</v>
+        <v>2.1027777777777779</v>
       </c>
       <c r="J7" s="143">
         <f t="shared" ca="1" si="1"/>
-        <v>547</v>
+        <v>769</v>
       </c>
       <c r="K7" s="565">
         <f t="shared" si="2"/>
@@ -28867,8 +28867,8 @@
   </sheetPr>
   <dimension ref="A1:AW89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -29078,15 +29078,15 @@
       </c>
       <c r="J2" s="23">
         <f ca="1">YEARFRAC(I2,TODAY())</f>
-        <v>1.4805555555555556</v>
+        <v>2.0833333333333335</v>
       </c>
       <c r="K2" s="23">
         <f ca="1">_xlfn.DAYS(TODAY(),I2)</f>
-        <v>540</v>
+        <v>762</v>
       </c>
       <c r="L2" s="23">
         <f ca="1">K2/30</f>
-        <v>18</v>
+        <v>25.4</v>
       </c>
       <c r="M2" s="24">
         <v>25</v>
@@ -29226,15 +29226,15 @@
       </c>
       <c r="J3" s="25">
         <f t="shared" ref="J3:J28" ca="1" si="2">YEARFRAC(I3,TODAY())</f>
-        <v>1.4805555555555556</v>
+        <v>2.0833333333333335</v>
       </c>
       <c r="K3" s="25">
         <f t="shared" ref="K3:K28" ca="1" si="3">_xlfn.DAYS(TODAY(),I3)</f>
-        <v>540</v>
+        <v>762</v>
       </c>
       <c r="L3" s="25">
         <f t="shared" ref="L3:L28" ca="1" si="4">K3/30</f>
-        <v>18</v>
+        <v>25.4</v>
       </c>
       <c r="M3" s="31">
         <v>25</v>
@@ -29373,15 +29373,15 @@
       </c>
       <c r="J4" s="25">
         <f t="shared" ca="1" si="2"/>
-        <v>1.4638888888888888</v>
+        <v>2.0666666666666669</v>
       </c>
       <c r="K4" s="25">
         <f t="shared" ca="1" si="3"/>
-        <v>534</v>
+        <v>756</v>
       </c>
       <c r="L4" s="25">
         <f t="shared" ca="1" si="4"/>
-        <v>17.8</v>
+        <v>25.2</v>
       </c>
       <c r="M4" s="31">
         <v>28</v>
@@ -29520,15 +29520,15 @@
       </c>
       <c r="J5" s="25">
         <f t="shared" ca="1" si="2"/>
-        <v>1.4805555555555556</v>
+        <v>2.0833333333333335</v>
       </c>
       <c r="K5" s="25">
         <f t="shared" ca="1" si="3"/>
-        <v>540</v>
+        <v>762</v>
       </c>
       <c r="L5" s="25">
         <f t="shared" ca="1" si="4"/>
-        <v>18</v>
+        <v>25.4</v>
       </c>
       <c r="M5" s="31">
         <v>21</v>
@@ -29671,15 +29671,15 @@
       </c>
       <c r="J6" s="25">
         <f t="shared" ca="1" si="2"/>
-        <v>1.4805555555555556</v>
+        <v>2.0833333333333335</v>
       </c>
       <c r="K6" s="25">
         <f t="shared" ca="1" si="3"/>
-        <v>540</v>
+        <v>762</v>
       </c>
       <c r="L6" s="25">
         <f t="shared" ca="1" si="4"/>
-        <v>18</v>
+        <v>25.4</v>
       </c>
       <c r="M6" s="31">
         <v>23</v>
@@ -29822,15 +29822,15 @@
       </c>
       <c r="J7" s="25">
         <f t="shared" ca="1" si="2"/>
-        <v>1.4805555555555556</v>
+        <v>2.0833333333333335</v>
       </c>
       <c r="K7" s="25">
         <f t="shared" ca="1" si="3"/>
-        <v>540</v>
+        <v>762</v>
       </c>
       <c r="L7" s="25">
         <f t="shared" ca="1" si="4"/>
-        <v>18</v>
+        <v>25.4</v>
       </c>
       <c r="M7" s="31">
         <v>23</v>
@@ -29973,15 +29973,15 @@
       </c>
       <c r="J8" s="36">
         <f t="shared" ca="1" si="2"/>
-        <v>1.5361111111111112</v>
+        <v>2.1388888888888888</v>
       </c>
       <c r="K8" s="36">
         <f t="shared" ca="1" si="3"/>
-        <v>561</v>
+        <v>783</v>
       </c>
       <c r="L8" s="36">
         <f t="shared" ca="1" si="4"/>
-        <v>18.7</v>
+        <v>26.1</v>
       </c>
       <c r="M8" s="37">
         <v>25</v>
@@ -30124,15 +30124,15 @@
       </c>
       <c r="J9" s="36">
         <f t="shared" ca="1" si="2"/>
-        <v>1.5361111111111112</v>
+        <v>2.1388888888888888</v>
       </c>
       <c r="K9" s="36">
         <f t="shared" ca="1" si="3"/>
-        <v>561</v>
+        <v>783</v>
       </c>
       <c r="L9" s="36">
         <f t="shared" ca="1" si="4"/>
-        <v>18.7</v>
+        <v>26.1</v>
       </c>
       <c r="M9" s="37">
         <v>26</v>
@@ -30271,15 +30271,15 @@
       </c>
       <c r="J10" s="36">
         <f t="shared" ca="1" si="2"/>
-        <v>1.5361111111111112</v>
+        <v>2.1388888888888888</v>
       </c>
       <c r="K10" s="36">
         <f t="shared" ca="1" si="3"/>
-        <v>561</v>
+        <v>783</v>
       </c>
       <c r="L10" s="36">
         <f t="shared" ca="1" si="4"/>
-        <v>18.7</v>
+        <v>26.1</v>
       </c>
       <c r="M10" s="37">
         <v>25</v>
@@ -30422,15 +30422,15 @@
       </c>
       <c r="J11" s="36">
         <f t="shared" ca="1" si="2"/>
-        <v>1.5361111111111112</v>
+        <v>2.1388888888888888</v>
       </c>
       <c r="K11" s="36">
         <f t="shared" ca="1" si="3"/>
-        <v>561</v>
+        <v>783</v>
       </c>
       <c r="L11" s="36">
         <f t="shared" ca="1" si="4"/>
-        <v>18.7</v>
+        <v>26.1</v>
       </c>
       <c r="M11" s="37">
         <v>28</v>
@@ -30569,15 +30569,15 @@
       </c>
       <c r="J12" s="44">
         <f t="shared" ca="1" si="2"/>
-        <v>1.6333333333333333</v>
+        <v>2.2361111111111112</v>
       </c>
       <c r="K12" s="44">
         <f t="shared" ca="1" si="3"/>
-        <v>596</v>
+        <v>818</v>
       </c>
       <c r="L12" s="45">
         <f t="shared" ca="1" si="4"/>
-        <v>19.866666666666667</v>
+        <v>27.266666666666666</v>
       </c>
       <c r="M12" s="46">
         <v>32</v>
@@ -30716,15 +30716,15 @@
       </c>
       <c r="J13" s="46">
         <f t="shared" ca="1" si="2"/>
-        <v>1.5805555555555555</v>
+        <v>2.1833333333333331</v>
       </c>
       <c r="K13" s="46">
         <f t="shared" ca="1" si="3"/>
-        <v>577</v>
+        <v>799</v>
       </c>
       <c r="L13" s="52">
         <f t="shared" ca="1" si="4"/>
-        <v>19.233333333333334</v>
+        <v>26.633333333333333</v>
       </c>
       <c r="M13" s="46">
         <v>30</v>
@@ -30863,15 +30863,15 @@
       </c>
       <c r="J14" s="46">
         <f t="shared" ca="1" si="2"/>
-        <v>1.4111111111111112</v>
+        <v>2.0138888888888888</v>
       </c>
       <c r="K14" s="46">
         <f t="shared" ca="1" si="3"/>
-        <v>514</v>
+        <v>736</v>
       </c>
       <c r="L14" s="52">
         <f t="shared" ca="1" si="4"/>
-        <v>17.133333333333333</v>
+        <v>24.533333333333335</v>
       </c>
       <c r="M14" s="46">
         <v>25</v>
@@ -31010,15 +31010,15 @@
       </c>
       <c r="J15" s="59">
         <f t="shared" ca="1" si="2"/>
-        <v>1.5722222222222222</v>
+        <v>2.1749999999999998</v>
       </c>
       <c r="K15" s="59">
         <f t="shared" ca="1" si="3"/>
-        <v>574</v>
+        <v>796</v>
       </c>
       <c r="L15" s="60">
         <f t="shared" ca="1" si="4"/>
-        <v>19.133333333333333</v>
+        <v>26.533333333333335</v>
       </c>
       <c r="M15" s="61">
         <v>28</v>
@@ -31114,15 +31114,15 @@
       </c>
       <c r="J16" s="71">
         <f t="shared" ca="1" si="2"/>
-        <v>1.5194444444444444</v>
+        <v>2.1222222222222222</v>
       </c>
       <c r="K16" s="71">
         <f t="shared" ca="1" si="3"/>
-        <v>554</v>
+        <v>776</v>
       </c>
       <c r="L16" s="71">
         <f t="shared" ca="1" si="4"/>
-        <v>18.466666666666665</v>
+        <v>25.866666666666667</v>
       </c>
       <c r="M16" s="72">
         <v>26</v>
@@ -31261,15 +31261,15 @@
       </c>
       <c r="J17" s="71">
         <f t="shared" ca="1" si="2"/>
-        <v>1.5194444444444444</v>
+        <v>2.1222222222222222</v>
       </c>
       <c r="K17" s="71">
         <f t="shared" ca="1" si="3"/>
-        <v>554</v>
+        <v>776</v>
       </c>
       <c r="L17" s="71">
         <f t="shared" ca="1" si="4"/>
-        <v>18.466666666666665</v>
+        <v>25.866666666666667</v>
       </c>
       <c r="M17" s="72">
         <v>27</v>
@@ -31408,15 +31408,15 @@
       </c>
       <c r="J18" s="71">
         <f t="shared" ca="1" si="2"/>
-        <v>1.5194444444444444</v>
+        <v>2.1222222222222222</v>
       </c>
       <c r="K18" s="71">
         <f t="shared" ca="1" si="3"/>
-        <v>554</v>
+        <v>776</v>
       </c>
       <c r="L18" s="71">
         <f t="shared" ca="1" si="4"/>
-        <v>18.466666666666665</v>
+        <v>25.866666666666667</v>
       </c>
       <c r="M18" s="72">
         <v>26</v>
@@ -31559,15 +31559,15 @@
       </c>
       <c r="J19" s="71">
         <f t="shared" ca="1" si="2"/>
-        <v>1.5194444444444444</v>
+        <v>2.1222222222222222</v>
       </c>
       <c r="K19" s="71">
         <f t="shared" ca="1" si="3"/>
-        <v>554</v>
+        <v>776</v>
       </c>
       <c r="L19" s="71">
         <f t="shared" ca="1" si="4"/>
-        <v>18.466666666666665</v>
+        <v>25.866666666666667</v>
       </c>
       <c r="M19" s="72">
         <v>29</v>
@@ -31710,15 +31710,15 @@
       </c>
       <c r="J20" s="71">
         <f t="shared" ca="1" si="2"/>
-        <v>1.5166666666666666</v>
+        <v>2.1194444444444445</v>
       </c>
       <c r="K20" s="71">
         <f t="shared" ca="1" si="3"/>
-        <v>553</v>
+        <v>775</v>
       </c>
       <c r="L20" s="71">
         <f t="shared" ca="1" si="4"/>
-        <v>18.433333333333334</v>
+        <v>25.833333333333332</v>
       </c>
       <c r="M20" s="72">
         <v>27</v>
@@ -31861,15 +31861,15 @@
       </c>
       <c r="J21" s="71">
         <f t="shared" ca="1" si="2"/>
-        <v>1.5166666666666666</v>
+        <v>2.1194444444444445</v>
       </c>
       <c r="K21" s="71">
         <f t="shared" ca="1" si="3"/>
-        <v>553</v>
+        <v>775</v>
       </c>
       <c r="L21" s="71">
         <f t="shared" ca="1" si="4"/>
-        <v>18.433333333333334</v>
+        <v>25.833333333333332</v>
       </c>
       <c r="M21" s="72">
         <v>28</v>
@@ -32012,15 +32012,15 @@
       </c>
       <c r="J22" s="71">
         <f t="shared" ca="1" si="2"/>
-        <v>1.5166666666666666</v>
+        <v>2.1194444444444445</v>
       </c>
       <c r="K22" s="71">
         <f t="shared" ca="1" si="3"/>
-        <v>553</v>
+        <v>775</v>
       </c>
       <c r="L22" s="71">
         <f t="shared" ca="1" si="4"/>
-        <v>18.433333333333334</v>
+        <v>25.833333333333332</v>
       </c>
       <c r="M22" s="72">
         <v>29</v>
@@ -32163,15 +32163,15 @@
       </c>
       <c r="J23" s="71">
         <f t="shared" ca="1" si="2"/>
-        <v>1.5166666666666666</v>
+        <v>2.1194444444444445</v>
       </c>
       <c r="K23" s="71">
         <f t="shared" ca="1" si="3"/>
-        <v>553</v>
+        <v>775</v>
       </c>
       <c r="L23" s="71">
         <f t="shared" ca="1" si="4"/>
-        <v>18.433333333333334</v>
+        <v>25.833333333333332</v>
       </c>
       <c r="M23" s="72">
         <v>29</v>
@@ -32314,15 +32314,15 @@
       </c>
       <c r="J24" s="71">
         <f t="shared" ca="1" si="2"/>
-        <v>1.5166666666666666</v>
+        <v>2.1194444444444445</v>
       </c>
       <c r="K24" s="71">
         <f t="shared" ca="1" si="3"/>
-        <v>553</v>
+        <v>775</v>
       </c>
       <c r="L24" s="71">
         <f t="shared" ca="1" si="4"/>
-        <v>18.433333333333334</v>
+        <v>25.833333333333332</v>
       </c>
       <c r="M24" s="72">
         <v>37</v>
@@ -32465,15 +32465,15 @@
       </c>
       <c r="J25" s="71">
         <f t="shared" ca="1" si="2"/>
-        <v>1.5194444444444444</v>
+        <v>2.1222222222222222</v>
       </c>
       <c r="K25" s="71">
         <f t="shared" ca="1" si="3"/>
-        <v>554</v>
+        <v>776</v>
       </c>
       <c r="L25" s="71">
         <f t="shared" ca="1" si="4"/>
-        <v>18.466666666666665</v>
+        <v>25.866666666666667</v>
       </c>
       <c r="M25" s="72">
         <v>28</v>
@@ -32616,15 +32616,15 @@
       </c>
       <c r="J26" s="71">
         <f t="shared" ca="1" si="2"/>
-        <v>1.5194444444444444</v>
+        <v>2.1222222222222222</v>
       </c>
       <c r="K26" s="71">
         <f t="shared" ca="1" si="3"/>
-        <v>554</v>
+        <v>776</v>
       </c>
       <c r="L26" s="71">
         <f t="shared" ca="1" si="4"/>
-        <v>18.466666666666665</v>
+        <v>25.866666666666667</v>
       </c>
       <c r="M26" s="72">
         <v>27</v>
@@ -32767,15 +32767,15 @@
       </c>
       <c r="J27" s="71">
         <f t="shared" ca="1" si="2"/>
-        <v>1.5194444444444444</v>
+        <v>2.1222222222222222</v>
       </c>
       <c r="K27" s="71">
         <f t="shared" ca="1" si="3"/>
-        <v>554</v>
+        <v>776</v>
       </c>
       <c r="L27" s="71">
         <f t="shared" ca="1" si="4"/>
-        <v>18.466666666666665</v>
+        <v>25.866666666666667</v>
       </c>
       <c r="M27" s="72">
         <v>26</v>
@@ -32918,15 +32918,15 @@
       </c>
       <c r="J28" s="77">
         <f t="shared" ca="1" si="2"/>
-        <v>1.5194444444444444</v>
+        <v>2.1222222222222222</v>
       </c>
       <c r="K28" s="77">
         <f t="shared" ca="1" si="3"/>
-        <v>554</v>
+        <v>776</v>
       </c>
       <c r="L28" s="77">
         <f t="shared" ca="1" si="4"/>
-        <v>18.466666666666665</v>
+        <v>25.866666666666667</v>
       </c>
       <c r="M28" s="72">
         <v>28</v>
@@ -33314,15 +33314,15 @@
       </c>
       <c r="J41" s="23">
         <f ca="1">YEARFRAC(I41,TODAY())</f>
-        <v>1.4805555555555556</v>
+        <v>2.0833333333333335</v>
       </c>
       <c r="K41" s="23">
         <f ca="1">_xlfn.DAYS(TODAY(),I41)</f>
-        <v>540</v>
+        <v>762</v>
       </c>
       <c r="L41" s="524">
         <f ca="1">K41/30</f>
-        <v>18</v>
+        <v>25.4</v>
       </c>
       <c r="M41" s="525">
         <v>400</v>
@@ -33456,15 +33456,15 @@
       </c>
       <c r="J42" s="25">
         <f t="shared" ref="J42:J67" ca="1" si="6">YEARFRAC(I42,TODAY())</f>
-        <v>1.4805555555555556</v>
+        <v>2.0833333333333335</v>
       </c>
       <c r="K42" s="25">
         <f t="shared" ref="K42:K67" ca="1" si="7">_xlfn.DAYS(TODAY(),I42)</f>
-        <v>540</v>
+        <v>762</v>
       </c>
       <c r="L42" s="25">
         <f t="shared" ref="L42:L67" ca="1" si="8">K42/30</f>
-        <v>18</v>
+        <v>25.4</v>
       </c>
       <c r="M42" s="25"/>
       <c r="N42" s="25"/>
@@ -33536,15 +33536,15 @@
       </c>
       <c r="J43" s="25">
         <f t="shared" ca="1" si="6"/>
-        <v>1.4638888888888888</v>
+        <v>2.0666666666666669</v>
       </c>
       <c r="K43" s="25">
         <f t="shared" ca="1" si="7"/>
-        <v>534</v>
+        <v>756</v>
       </c>
       <c r="L43" s="25">
         <f t="shared" ca="1" si="8"/>
-        <v>17.8</v>
+        <v>25.2</v>
       </c>
       <c r="M43" s="25"/>
       <c r="N43" s="25"/>
@@ -33611,15 +33611,15 @@
       </c>
       <c r="J44" s="25">
         <f t="shared" ca="1" si="6"/>
-        <v>1.4805555555555556</v>
+        <v>2.0833333333333335</v>
       </c>
       <c r="K44" s="25">
         <f t="shared" ca="1" si="7"/>
-        <v>540</v>
+        <v>762</v>
       </c>
       <c r="L44" s="529">
         <f t="shared" ca="1" si="8"/>
-        <v>18</v>
+        <v>25.4</v>
       </c>
       <c r="M44" s="525">
         <v>400</v>
@@ -33753,15 +33753,15 @@
       </c>
       <c r="J45" s="25">
         <f t="shared" ca="1" si="6"/>
-        <v>1.4805555555555556</v>
+        <v>2.0833333333333335</v>
       </c>
       <c r="K45" s="25">
         <f t="shared" ca="1" si="7"/>
-        <v>540</v>
+        <v>762</v>
       </c>
       <c r="L45" s="25">
         <f t="shared" ca="1" si="8"/>
-        <v>18</v>
+        <v>25.4</v>
       </c>
       <c r="M45" s="25"/>
       <c r="N45" s="25"/>
@@ -33828,15 +33828,15 @@
       </c>
       <c r="J46" s="25">
         <f t="shared" ca="1" si="6"/>
-        <v>1.4805555555555556</v>
+        <v>2.0833333333333335</v>
       </c>
       <c r="K46" s="25">
         <f t="shared" ca="1" si="7"/>
-        <v>540</v>
+        <v>762</v>
       </c>
       <c r="L46" s="25">
         <f t="shared" ca="1" si="8"/>
-        <v>18</v>
+        <v>25.4</v>
       </c>
       <c r="M46" s="25"/>
       <c r="N46" s="25"/>
@@ -33903,15 +33903,15 @@
       </c>
       <c r="J47" s="36">
         <f t="shared" ca="1" si="6"/>
-        <v>1.5361111111111112</v>
+        <v>2.1388888888888888</v>
       </c>
       <c r="K47" s="36">
         <f t="shared" ca="1" si="7"/>
-        <v>561</v>
+        <v>783</v>
       </c>
       <c r="L47" s="530">
         <f t="shared" ca="1" si="8"/>
-        <v>18.7</v>
+        <v>26.1</v>
       </c>
       <c r="M47" s="531">
         <v>400</v>
@@ -34045,15 +34045,15 @@
       </c>
       <c r="J48" s="36">
         <f t="shared" ca="1" si="6"/>
-        <v>1.5361111111111112</v>
+        <v>2.1388888888888888</v>
       </c>
       <c r="K48" s="36">
         <f t="shared" ca="1" si="7"/>
-        <v>561</v>
+        <v>783</v>
       </c>
       <c r="L48" s="36">
         <f t="shared" ca="1" si="8"/>
-        <v>18.7</v>
+        <v>26.1</v>
       </c>
       <c r="M48" s="36"/>
       <c r="N48" s="38"/>
@@ -34120,15 +34120,15 @@
       </c>
       <c r="J49" s="36">
         <f t="shared" ca="1" si="6"/>
-        <v>1.5361111111111112</v>
+        <v>2.1388888888888888</v>
       </c>
       <c r="K49" s="36">
         <f t="shared" ca="1" si="7"/>
-        <v>561</v>
+        <v>783</v>
       </c>
       <c r="L49" s="36">
         <f t="shared" ca="1" si="8"/>
-        <v>18.7</v>
+        <v>26.1</v>
       </c>
       <c r="M49" s="36"/>
       <c r="N49" s="38"/>
@@ -34195,15 +34195,15 @@
       </c>
       <c r="J50" s="36">
         <f t="shared" ca="1" si="6"/>
-        <v>1.5361111111111112</v>
+        <v>2.1388888888888888</v>
       </c>
       <c r="K50" s="36">
         <f t="shared" ca="1" si="7"/>
-        <v>561</v>
+        <v>783</v>
       </c>
       <c r="L50" s="36">
         <f t="shared" ca="1" si="8"/>
-        <v>18.7</v>
+        <v>26.1</v>
       </c>
       <c r="M50" s="36"/>
       <c r="N50" s="38"/>
@@ -34270,15 +34270,15 @@
       </c>
       <c r="J51" s="44">
         <f t="shared" ca="1" si="6"/>
-        <v>1.6333333333333333</v>
+        <v>2.2361111111111112</v>
       </c>
       <c r="K51" s="44">
         <f t="shared" ca="1" si="7"/>
-        <v>596</v>
+        <v>818</v>
       </c>
       <c r="L51" s="45">
         <f t="shared" ca="1" si="8"/>
-        <v>19.866666666666667</v>
+        <v>27.266666666666666</v>
       </c>
       <c r="M51" s="534">
         <v>400</v>
@@ -34412,15 +34412,15 @@
       </c>
       <c r="J52" s="46">
         <f t="shared" ca="1" si="6"/>
-        <v>1.5805555555555555</v>
+        <v>2.1833333333333331</v>
       </c>
       <c r="K52" s="46">
         <f t="shared" ca="1" si="7"/>
-        <v>577</v>
+        <v>799</v>
       </c>
       <c r="L52" s="52">
         <f t="shared" ca="1" si="8"/>
-        <v>19.233333333333334</v>
+        <v>26.633333333333333</v>
       </c>
       <c r="M52" s="323"/>
       <c r="N52" s="47"/>
@@ -34487,15 +34487,15 @@
       </c>
       <c r="J53" s="46">
         <f t="shared" ca="1" si="6"/>
-        <v>1.4111111111111112</v>
+        <v>2.0138888888888888</v>
       </c>
       <c r="K53" s="46">
         <f t="shared" ca="1" si="7"/>
-        <v>514</v>
+        <v>736</v>
       </c>
       <c r="L53" s="52">
         <f t="shared" ca="1" si="8"/>
-        <v>17.133333333333333</v>
+        <v>24.533333333333335</v>
       </c>
       <c r="M53" s="534">
         <v>400</v>
@@ -34629,15 +34629,15 @@
       </c>
       <c r="J54" s="59">
         <f t="shared" ca="1" si="6"/>
-        <v>1.5722222222222222</v>
+        <v>2.1749999999999998</v>
       </c>
       <c r="K54" s="59">
         <f t="shared" ca="1" si="7"/>
-        <v>574</v>
+        <v>796</v>
       </c>
       <c r="L54" s="60">
         <f t="shared" ca="1" si="8"/>
-        <v>19.133333333333333</v>
+        <v>26.533333333333335</v>
       </c>
       <c r="M54" s="536"/>
       <c r="N54" s="537"/>
@@ -34704,15 +34704,15 @@
       </c>
       <c r="J55" s="71">
         <f t="shared" ca="1" si="6"/>
-        <v>1.5194444444444444</v>
+        <v>2.1222222222222222</v>
       </c>
       <c r="K55" s="71">
         <f t="shared" ca="1" si="7"/>
-        <v>554</v>
+        <v>776</v>
       </c>
       <c r="L55" s="538">
         <f t="shared" ca="1" si="8"/>
-        <v>18.466666666666665</v>
+        <v>25.866666666666667</v>
       </c>
       <c r="M55" s="539">
         <v>400</v>
@@ -34846,15 +34846,15 @@
       </c>
       <c r="J56" s="71">
         <f t="shared" ca="1" si="6"/>
-        <v>1.5194444444444444</v>
+        <v>2.1222222222222222</v>
       </c>
       <c r="K56" s="71">
         <f t="shared" ca="1" si="7"/>
-        <v>554</v>
+        <v>776</v>
       </c>
       <c r="L56" s="71">
         <f t="shared" ca="1" si="8"/>
-        <v>18.466666666666665</v>
+        <v>25.866666666666667</v>
       </c>
       <c r="M56" s="71"/>
       <c r="N56" s="73"/>
@@ -34921,15 +34921,15 @@
       </c>
       <c r="J57" s="71">
         <f t="shared" ca="1" si="6"/>
-        <v>1.5194444444444444</v>
+        <v>2.1222222222222222</v>
       </c>
       <c r="K57" s="71">
         <f t="shared" ca="1" si="7"/>
-        <v>554</v>
+        <v>776</v>
       </c>
       <c r="L57" s="538">
         <f t="shared" ca="1" si="8"/>
-        <v>18.466666666666665</v>
+        <v>25.866666666666667</v>
       </c>
       <c r="M57" s="539">
         <v>400</v>
@@ -35062,15 +35062,15 @@
       </c>
       <c r="J58" s="71">
         <f t="shared" ca="1" si="6"/>
-        <v>1.5194444444444444</v>
+        <v>2.1222222222222222</v>
       </c>
       <c r="K58" s="71">
         <f t="shared" ca="1" si="7"/>
-        <v>554</v>
+        <v>776</v>
       </c>
       <c r="L58" s="71">
         <f t="shared" ca="1" si="8"/>
-        <v>18.466666666666665</v>
+        <v>25.866666666666667</v>
       </c>
       <c r="M58" s="71"/>
       <c r="N58" s="73"/>
@@ -35137,15 +35137,15 @@
       </c>
       <c r="J59" s="71">
         <f t="shared" ca="1" si="6"/>
-        <v>1.5166666666666666</v>
+        <v>2.1194444444444445</v>
       </c>
       <c r="K59" s="71">
         <f t="shared" ca="1" si="7"/>
-        <v>553</v>
+        <v>775</v>
       </c>
       <c r="L59" s="71">
         <f t="shared" ca="1" si="8"/>
-        <v>18.433333333333334</v>
+        <v>25.833333333333332</v>
       </c>
       <c r="M59" s="71"/>
       <c r="N59" s="73"/>
@@ -35212,15 +35212,15 @@
       </c>
       <c r="J60" s="71">
         <f t="shared" ca="1" si="6"/>
-        <v>1.5166666666666666</v>
+        <v>2.1194444444444445</v>
       </c>
       <c r="K60" s="71">
         <f t="shared" ca="1" si="7"/>
-        <v>553</v>
+        <v>775</v>
       </c>
       <c r="L60" s="71">
         <f t="shared" ca="1" si="8"/>
-        <v>18.433333333333334</v>
+        <v>25.833333333333332</v>
       </c>
       <c r="M60" s="71"/>
       <c r="N60" s="73"/>
@@ -35287,15 +35287,15 @@
       </c>
       <c r="J61" s="71">
         <f t="shared" ca="1" si="6"/>
-        <v>1.5166666666666666</v>
+        <v>2.1194444444444445</v>
       </c>
       <c r="K61" s="71">
         <f t="shared" ca="1" si="7"/>
-        <v>553</v>
+        <v>775</v>
       </c>
       <c r="L61" s="71">
         <f t="shared" ca="1" si="8"/>
-        <v>18.433333333333334</v>
+        <v>25.833333333333332</v>
       </c>
       <c r="M61" s="71"/>
       <c r="N61" s="73"/>
@@ -35362,15 +35362,15 @@
       </c>
       <c r="J62" s="71">
         <f t="shared" ca="1" si="6"/>
-        <v>1.5166666666666666</v>
+        <v>2.1194444444444445</v>
       </c>
       <c r="K62" s="71">
         <f t="shared" ca="1" si="7"/>
-        <v>553</v>
+        <v>775</v>
       </c>
       <c r="L62" s="538">
         <f t="shared" ca="1" si="8"/>
-        <v>18.433333333333334</v>
+        <v>25.833333333333332</v>
       </c>
       <c r="M62" s="539">
         <v>400</v>
@@ -35503,15 +35503,15 @@
       </c>
       <c r="J63" s="71">
         <f t="shared" ca="1" si="6"/>
-        <v>1.5166666666666666</v>
+        <v>2.1194444444444445</v>
       </c>
       <c r="K63" s="71">
         <f t="shared" ca="1" si="7"/>
-        <v>553</v>
+        <v>775</v>
       </c>
       <c r="L63" s="71">
         <f t="shared" ca="1" si="8"/>
-        <v>18.433333333333334</v>
+        <v>25.833333333333332</v>
       </c>
       <c r="M63" s="71"/>
       <c r="N63" s="73"/>
@@ -35580,15 +35580,15 @@
       </c>
       <c r="J64" s="71">
         <f t="shared" ca="1" si="6"/>
-        <v>1.5194444444444444</v>
+        <v>2.1222222222222222</v>
       </c>
       <c r="K64" s="71">
         <f t="shared" ca="1" si="7"/>
-        <v>554</v>
+        <v>776</v>
       </c>
       <c r="L64" s="538">
         <f t="shared" ca="1" si="8"/>
-        <v>18.466666666666665</v>
+        <v>25.866666666666667</v>
       </c>
       <c r="M64" s="539">
         <v>400</v>
@@ -35722,15 +35722,15 @@
       </c>
       <c r="J65" s="71">
         <f t="shared" ca="1" si="6"/>
-        <v>1.5194444444444444</v>
+        <v>2.1222222222222222</v>
       </c>
       <c r="K65" s="71">
         <f t="shared" ca="1" si="7"/>
-        <v>554</v>
+        <v>776</v>
       </c>
       <c r="L65" s="71">
         <f t="shared" ca="1" si="8"/>
-        <v>18.466666666666665</v>
+        <v>25.866666666666667</v>
       </c>
       <c r="M65" s="71"/>
       <c r="N65" s="73"/>
@@ -35797,15 +35797,15 @@
       </c>
       <c r="J66" s="71">
         <f t="shared" ca="1" si="6"/>
-        <v>1.5194444444444444</v>
+        <v>2.1222222222222222</v>
       </c>
       <c r="K66" s="71">
         <f t="shared" ca="1" si="7"/>
-        <v>554</v>
+        <v>776</v>
       </c>
       <c r="L66" s="71">
         <f t="shared" ca="1" si="8"/>
-        <v>18.466666666666665</v>
+        <v>25.866666666666667</v>
       </c>
       <c r="M66" s="71"/>
       <c r="N66" s="73"/>
@@ -35872,15 +35872,15 @@
       </c>
       <c r="J67" s="77">
         <f t="shared" ca="1" si="6"/>
-        <v>1.5194444444444444</v>
+        <v>2.1222222222222222</v>
       </c>
       <c r="K67" s="77">
         <f t="shared" ca="1" si="7"/>
-        <v>554</v>
+        <v>776</v>
       </c>
       <c r="L67" s="71">
         <f t="shared" ca="1" si="8"/>
-        <v>18.466666666666665</v>
+        <v>25.866666666666667</v>
       </c>
       <c r="M67" s="71"/>
       <c r="N67" s="73"/>
@@ -36626,15 +36626,15 @@
       </c>
       <c r="I2" s="85">
         <f t="shared" ref="I2:I18" ca="1" si="0">YEARFRAC(H2,TODAY())</f>
-        <v>1.2555555555555555</v>
+        <v>1.8583333333333334</v>
       </c>
       <c r="J2" s="16">
         <f t="shared" ref="J2:J18" ca="1" si="1">_xlfn.DAYS(TODAY(),H2)</f>
-        <v>458</v>
+        <v>680</v>
       </c>
       <c r="K2" s="16">
         <f t="shared" ref="K2:K18" ca="1" si="2">J2/30</f>
-        <v>15.266666666666667</v>
+        <v>22.666666666666668</v>
       </c>
       <c r="L2" s="102" t="s">
         <v>708</v>
@@ -36737,15 +36737,15 @@
       </c>
       <c r="I3" s="85">
         <f t="shared" ca="1" si="0"/>
-        <v>1.2555555555555555</v>
+        <v>1.8583333333333334</v>
       </c>
       <c r="J3" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>458</v>
+        <v>680</v>
       </c>
       <c r="K3" s="16">
         <f t="shared" ca="1" si="2"/>
-        <v>15.266666666666667</v>
+        <v>22.666666666666668</v>
       </c>
       <c r="L3" s="102" t="s">
         <v>708</v>
@@ -36844,15 +36844,15 @@
       </c>
       <c r="I4" s="85">
         <f t="shared" ref="I4" ca="1" si="4">YEARFRAC(H4,TODAY())</f>
-        <v>1.1916666666666667</v>
+        <v>1.7944444444444445</v>
       </c>
       <c r="J4" s="16">
         <f t="shared" ref="J4" ca="1" si="5">_xlfn.DAYS(TODAY(),H4)</f>
-        <v>435</v>
+        <v>657</v>
       </c>
       <c r="K4" s="16">
         <f t="shared" ref="K4" ca="1" si="6">J4/30</f>
-        <v>14.5</v>
+        <v>21.9</v>
       </c>
       <c r="L4" s="102" t="s">
         <v>708</v>
@@ -36953,15 +36953,15 @@
       </c>
       <c r="I5" s="85">
         <f t="shared" ca="1" si="0"/>
-        <v>1.2555555555555555</v>
+        <v>1.8583333333333334</v>
       </c>
       <c r="J5" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>458</v>
+        <v>680</v>
       </c>
       <c r="K5" s="16">
         <f t="shared" ca="1" si="2"/>
-        <v>15.266666666666667</v>
+        <v>22.666666666666668</v>
       </c>
       <c r="L5" s="102" t="s">
         <v>708</v>
@@ -37060,15 +37060,15 @@
       </c>
       <c r="I6" s="85">
         <f t="shared" ca="1" si="0"/>
-        <v>1.2305555555555556</v>
+        <v>1.8333333333333333</v>
       </c>
       <c r="J6" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>449</v>
+        <v>671</v>
       </c>
       <c r="K6" s="16">
         <f t="shared" ca="1" si="2"/>
-        <v>14.966666666666667</v>
+        <v>22.366666666666667</v>
       </c>
       <c r="L6" s="340" t="s">
         <v>547</v>
@@ -37167,15 +37167,15 @@
       </c>
       <c r="I7" s="85">
         <f t="shared" ca="1" si="0"/>
-        <v>1.2305555555555556</v>
+        <v>1.8333333333333333</v>
       </c>
       <c r="J7" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>449</v>
+        <v>671</v>
       </c>
       <c r="K7" s="16">
         <f t="shared" ca="1" si="2"/>
-        <v>14.966666666666667</v>
+        <v>22.366666666666667</v>
       </c>
       <c r="L7" s="340" t="s">
         <v>547</v>
@@ -37274,15 +37274,15 @@
       </c>
       <c r="I8" s="85">
         <f t="shared" ca="1" si="0"/>
-        <v>1.2305555555555556</v>
+        <v>1.8333333333333333</v>
       </c>
       <c r="J8" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>449</v>
+        <v>671</v>
       </c>
       <c r="K8" s="16">
         <f t="shared" ca="1" si="2"/>
-        <v>14.966666666666667</v>
+        <v>22.366666666666667</v>
       </c>
       <c r="L8" s="340" t="s">
         <v>547</v>
@@ -37381,15 +37381,15 @@
       </c>
       <c r="I9" s="85">
         <f t="shared" ca="1" si="0"/>
-        <v>1.2305555555555556</v>
+        <v>1.8333333333333333</v>
       </c>
       <c r="J9" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>449</v>
+        <v>671</v>
       </c>
       <c r="K9" s="16">
         <f t="shared" ca="1" si="2"/>
-        <v>14.966666666666667</v>
+        <v>22.366666666666667</v>
       </c>
       <c r="L9" s="340" t="s">
         <v>547</v>
@@ -37488,15 +37488,15 @@
       </c>
       <c r="I10" s="85">
         <f t="shared" ca="1" si="0"/>
-        <v>1.2138888888888888</v>
+        <v>1.8166666666666667</v>
       </c>
       <c r="J10" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>443</v>
+        <v>665</v>
       </c>
       <c r="K10" s="16">
         <f t="shared" ca="1" si="2"/>
-        <v>14.766666666666667</v>
+        <v>22.166666666666668</v>
       </c>
       <c r="L10" s="102" t="s">
         <v>708</v>
@@ -37595,15 +37595,15 @@
       </c>
       <c r="I11" s="85">
         <f t="shared" ca="1" si="0"/>
-        <v>1.2138888888888888</v>
+        <v>1.8166666666666667</v>
       </c>
       <c r="J11" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>443</v>
+        <v>665</v>
       </c>
       <c r="K11" s="16">
         <f t="shared" ca="1" si="2"/>
-        <v>14.766666666666667</v>
+        <v>22.166666666666668</v>
       </c>
       <c r="L11" s="102" t="s">
         <v>708</v>
@@ -37702,15 +37702,15 @@
       </c>
       <c r="I12" s="85">
         <f t="shared" ca="1" si="0"/>
-        <v>1.2138888888888888</v>
+        <v>1.8166666666666667</v>
       </c>
       <c r="J12" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>443</v>
+        <v>665</v>
       </c>
       <c r="K12" s="16">
         <f t="shared" ca="1" si="2"/>
-        <v>14.766666666666667</v>
+        <v>22.166666666666668</v>
       </c>
       <c r="L12" s="102" t="s">
         <v>708</v>
@@ -37809,15 +37809,15 @@
       </c>
       <c r="I13" s="85">
         <f t="shared" ca="1" si="0"/>
-        <v>1.2138888888888888</v>
+        <v>1.8166666666666667</v>
       </c>
       <c r="J13" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>443</v>
+        <v>665</v>
       </c>
       <c r="K13" s="16">
         <f t="shared" ca="1" si="2"/>
-        <v>14.766666666666667</v>
+        <v>22.166666666666668</v>
       </c>
       <c r="L13" s="102" t="s">
         <v>708</v>
@@ -37916,15 +37916,15 @@
       </c>
       <c r="I14" s="85">
         <f t="shared" ca="1" si="0"/>
-        <v>1.2138888888888888</v>
+        <v>1.8166666666666667</v>
       </c>
       <c r="J14" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>443</v>
+        <v>665</v>
       </c>
       <c r="K14" s="16">
         <f t="shared" ca="1" si="2"/>
-        <v>14.766666666666667</v>
+        <v>22.166666666666668</v>
       </c>
       <c r="L14" s="340" t="s">
         <v>547</v>
@@ -38023,15 +38023,15 @@
       </c>
       <c r="I15" s="85">
         <f t="shared" ca="1" si="0"/>
-        <v>1.2138888888888888</v>
+        <v>1.8166666666666667</v>
       </c>
       <c r="J15" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>443</v>
+        <v>665</v>
       </c>
       <c r="K15" s="16">
         <f t="shared" ca="1" si="2"/>
-        <v>14.766666666666667</v>
+        <v>22.166666666666668</v>
       </c>
       <c r="L15" s="340" t="s">
         <v>547</v>
@@ -38130,15 +38130,15 @@
       </c>
       <c r="I16" s="85">
         <f t="shared" ca="1" si="0"/>
-        <v>1.2138888888888888</v>
+        <v>1.8166666666666667</v>
       </c>
       <c r="J16" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>443</v>
+        <v>665</v>
       </c>
       <c r="K16" s="16">
         <f t="shared" ca="1" si="2"/>
-        <v>14.766666666666667</v>
+        <v>22.166666666666668</v>
       </c>
       <c r="L16" s="340" t="s">
         <v>547</v>
@@ -38237,15 +38237,15 @@
       </c>
       <c r="I17" s="85">
         <f t="shared" ca="1" si="0"/>
-        <v>1.2138888888888888</v>
+        <v>1.8166666666666667</v>
       </c>
       <c r="J17" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>443</v>
+        <v>665</v>
       </c>
       <c r="K17" s="16">
         <f t="shared" ca="1" si="2"/>
-        <v>14.766666666666667</v>
+        <v>22.166666666666668</v>
       </c>
       <c r="L17" s="340" t="s">
         <v>547</v>
@@ -38344,15 +38344,15 @@
       </c>
       <c r="I18" s="85">
         <f t="shared" ca="1" si="0"/>
-        <v>1.1916666666666667</v>
+        <v>1.7944444444444445</v>
       </c>
       <c r="J18" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>435</v>
+        <v>657</v>
       </c>
       <c r="K18" s="16">
         <f t="shared" ca="1" si="2"/>
-        <v>14.5</v>
+        <v>21.9</v>
       </c>
       <c r="L18" s="340" t="s">
         <v>547</v>
@@ -38451,15 +38451,15 @@
       </c>
       <c r="I19" s="101">
         <f ca="1">YEARFRAC(H19,TODAY())</f>
-        <v>1.1944444444444444</v>
+        <v>1.7972222222222223</v>
       </c>
       <c r="J19" s="95">
         <f ca="1">_xlfn.DAYS(TODAY(),H19)</f>
-        <v>436</v>
+        <v>658</v>
       </c>
       <c r="K19" s="95">
         <f ca="1">J19/30</f>
-        <v>14.533333333333333</v>
+        <v>21.933333333333334</v>
       </c>
       <c r="L19" s="102" t="s">
         <v>708</v>
@@ -38558,15 +38558,15 @@
       </c>
       <c r="I20" s="101">
         <f ca="1">YEARFRAC(H20,TODAY())</f>
-        <v>1.1944444444444444</v>
+        <v>1.7972222222222223</v>
       </c>
       <c r="J20" s="95">
         <f ca="1">_xlfn.DAYS(TODAY(),H20)</f>
-        <v>436</v>
+        <v>658</v>
       </c>
       <c r="K20" s="95">
         <f ca="1">J20/30</f>
-        <v>14.533333333333333</v>
+        <v>21.933333333333334</v>
       </c>
       <c r="L20" s="102" t="s">
         <v>708</v>
@@ -38668,15 +38668,15 @@
       </c>
       <c r="I21" s="101">
         <f ca="1">YEARFRAC(H21,TODAY())</f>
-        <v>1.1944444444444444</v>
+        <v>1.7972222222222223</v>
       </c>
       <c r="J21" s="95">
         <f ca="1">_xlfn.DAYS(TODAY(),H21)</f>
-        <v>436</v>
+        <v>658</v>
       </c>
       <c r="K21" s="95">
         <f ca="1">J21/30</f>
-        <v>14.533333333333333</v>
+        <v>21.933333333333334</v>
       </c>
       <c r="L21" s="102" t="s">
         <v>708</v>
@@ -38775,15 +38775,15 @@
       </c>
       <c r="I22" s="101">
         <f ca="1">YEARFRAC(H22,TODAY())</f>
-        <v>1.1944444444444444</v>
+        <v>1.7972222222222223</v>
       </c>
       <c r="J22" s="95">
         <f ca="1">_xlfn.DAYS(TODAY(),H22)</f>
-        <v>436</v>
+        <v>658</v>
       </c>
       <c r="K22" s="95">
         <f ca="1">J22/30</f>
-        <v>14.533333333333333</v>
+        <v>21.933333333333334</v>
       </c>
       <c r="L22" s="102" t="s">
         <v>708</v>
@@ -38882,15 +38882,15 @@
       </c>
       <c r="I23" s="101">
         <f t="shared" ref="I23:I24" ca="1" si="7">YEARFRAC(H23,TODAY())</f>
-        <v>1.3277777777777777</v>
+        <v>1.9305555555555556</v>
       </c>
       <c r="J23" s="95">
         <f t="shared" ref="J23:J24" ca="1" si="8">_xlfn.DAYS(TODAY(),H23)</f>
-        <v>485</v>
+        <v>707</v>
       </c>
       <c r="K23" s="95">
         <f t="shared" ref="K23:K24" ca="1" si="9">J23/30</f>
-        <v>16.166666666666668</v>
+        <v>23.566666666666666</v>
       </c>
       <c r="L23" s="102" t="s">
         <v>708</v>
@@ -38993,15 +38993,15 @@
       </c>
       <c r="I24" s="101">
         <f t="shared" ca="1" si="7"/>
-        <v>1.3277777777777777</v>
+        <v>1.9305555555555556</v>
       </c>
       <c r="J24" s="95">
         <f t="shared" ca="1" si="8"/>
-        <v>485</v>
+        <v>707</v>
       </c>
       <c r="K24" s="95">
         <f t="shared" ca="1" si="9"/>
-        <v>16.166666666666668</v>
+        <v>23.566666666666666</v>
       </c>
       <c r="L24" s="102" t="s">
         <v>708</v>
@@ -39100,15 +39100,15 @@
       </c>
       <c r="I25" s="101">
         <f ca="1">YEARFRAC(H25,TODAY())</f>
-        <v>1.1944444444444444</v>
+        <v>1.7972222222222223</v>
       </c>
       <c r="J25" s="95">
         <f ca="1">_xlfn.DAYS(TODAY(),H25)</f>
-        <v>436</v>
+        <v>658</v>
       </c>
       <c r="K25" s="95">
         <f ca="1">J25/30</f>
-        <v>14.533333333333333</v>
+        <v>21.933333333333334</v>
       </c>
       <c r="L25" s="102" t="s">
         <v>708</v>
@@ -39207,15 +39207,15 @@
       </c>
       <c r="I26" s="99">
         <f t="shared" ref="I26:I30" ca="1" si="10">YEARFRAC(H26,TODAY())</f>
-        <v>1.2555555555555555</v>
+        <v>1.8583333333333334</v>
       </c>
       <c r="J26" s="97">
         <f t="shared" ref="J26:J30" ca="1" si="11">_xlfn.DAYS(TODAY(),H26)</f>
-        <v>458</v>
+        <v>680</v>
       </c>
       <c r="K26" s="97">
         <f t="shared" ref="K26:K30" ca="1" si="12">J26/30</f>
-        <v>15.266666666666667</v>
+        <v>22.666666666666668</v>
       </c>
       <c r="L26" s="102" t="s">
         <v>708</v>
@@ -39314,15 +39314,15 @@
       </c>
       <c r="I27" s="99">
         <f t="shared" ca="1" si="10"/>
-        <v>1.2555555555555555</v>
+        <v>1.8583333333333334</v>
       </c>
       <c r="J27" s="97">
         <f t="shared" ca="1" si="11"/>
-        <v>458</v>
+        <v>680</v>
       </c>
       <c r="K27" s="97">
         <f t="shared" ca="1" si="12"/>
-        <v>15.266666666666667</v>
+        <v>22.666666666666668</v>
       </c>
       <c r="L27" s="102" t="s">
         <v>708</v>
@@ -39421,15 +39421,15 @@
       </c>
       <c r="I28" s="99">
         <f t="shared" ca="1" si="10"/>
-        <v>1.2555555555555555</v>
+        <v>1.8583333333333334</v>
       </c>
       <c r="J28" s="97">
         <f t="shared" ca="1" si="11"/>
-        <v>458</v>
+        <v>680</v>
       </c>
       <c r="K28" s="97">
         <f t="shared" ca="1" si="12"/>
-        <v>15.266666666666667</v>
+        <v>22.666666666666668</v>
       </c>
       <c r="L28" s="102" t="s">
         <v>708</v>
@@ -39528,15 +39528,15 @@
       </c>
       <c r="I29" s="99">
         <f t="shared" ca="1" si="10"/>
-        <v>1.2555555555555555</v>
+        <v>1.8583333333333334</v>
       </c>
       <c r="J29" s="97">
         <f t="shared" ca="1" si="11"/>
-        <v>458</v>
+        <v>680</v>
       </c>
       <c r="K29" s="97">
         <f t="shared" ca="1" si="12"/>
-        <v>15.266666666666667</v>
+        <v>22.666666666666668</v>
       </c>
       <c r="L29" s="102" t="s">
         <v>708</v>
@@ -39635,15 +39635,15 @@
       </c>
       <c r="I30" s="99">
         <f t="shared" ca="1" si="10"/>
-        <v>1.2277777777777779</v>
+        <v>1.8305555555555555</v>
       </c>
       <c r="J30" s="97">
         <f t="shared" ca="1" si="11"/>
-        <v>448</v>
+        <v>670</v>
       </c>
       <c r="K30" s="97">
         <f t="shared" ca="1" si="12"/>
-        <v>14.933333333333334</v>
+        <v>22.333333333333332</v>
       </c>
       <c r="L30" s="102" t="s">
         <v>708</v>
@@ -39989,15 +39989,15 @@
       </c>
       <c r="I43" s="85">
         <f t="shared" ref="I43:I71" ca="1" si="13">YEARFRAC(H43,TODAY())</f>
-        <v>1.2555555555555555</v>
+        <v>1.8583333333333334</v>
       </c>
       <c r="J43" s="16">
         <f t="shared" ref="J43:J71" ca="1" si="14">_xlfn.DAYS(TODAY(),H43)</f>
-        <v>458</v>
+        <v>680</v>
       </c>
       <c r="K43" s="16">
         <f t="shared" ref="K43:K71" ca="1" si="15">J43/30</f>
-        <v>15.266666666666667</v>
+        <v>22.666666666666668</v>
       </c>
       <c r="L43" s="102" t="s">
         <v>708</v>
@@ -40132,15 +40132,15 @@
       </c>
       <c r="I44" s="85">
         <f t="shared" ca="1" si="13"/>
-        <v>1.2555555555555555</v>
+        <v>1.8583333333333334</v>
       </c>
       <c r="J44" s="16">
         <f t="shared" ca="1" si="14"/>
-        <v>458</v>
+        <v>680</v>
       </c>
       <c r="K44" s="16">
         <f t="shared" ca="1" si="15"/>
-        <v>15.266666666666667</v>
+        <v>22.666666666666668</v>
       </c>
       <c r="L44" s="102" t="s">
         <v>708</v>
@@ -40209,15 +40209,15 @@
       </c>
       <c r="I45" s="85">
         <f t="shared" ca="1" si="13"/>
-        <v>1.1916666666666667</v>
+        <v>1.7944444444444445</v>
       </c>
       <c r="J45" s="16">
         <f t="shared" ca="1" si="14"/>
-        <v>435</v>
+        <v>657</v>
       </c>
       <c r="K45" s="16">
         <f t="shared" ca="1" si="15"/>
-        <v>14.5</v>
+        <v>21.9</v>
       </c>
       <c r="L45" s="102" t="s">
         <v>708</v>
@@ -40288,15 +40288,15 @@
       </c>
       <c r="I46" s="85">
         <f t="shared" ca="1" si="13"/>
-        <v>1.2555555555555555</v>
+        <v>1.8583333333333334</v>
       </c>
       <c r="J46" s="16">
         <f t="shared" ca="1" si="14"/>
-        <v>458</v>
+        <v>680</v>
       </c>
       <c r="K46" s="16">
         <f t="shared" ca="1" si="15"/>
-        <v>15.266666666666667</v>
+        <v>22.666666666666668</v>
       </c>
       <c r="L46" s="102" t="s">
         <v>708</v>
@@ -40365,15 +40365,15 @@
       </c>
       <c r="I47" s="85">
         <f t="shared" ca="1" si="13"/>
-        <v>1.2305555555555556</v>
+        <v>1.8333333333333333</v>
       </c>
       <c r="J47" s="16">
         <f t="shared" ca="1" si="14"/>
-        <v>449</v>
+        <v>671</v>
       </c>
       <c r="K47" s="16">
         <f t="shared" ca="1" si="15"/>
-        <v>14.966666666666667</v>
+        <v>22.366666666666667</v>
       </c>
       <c r="L47" s="87" t="s">
         <v>9</v>
@@ -40442,15 +40442,15 @@
       </c>
       <c r="I48" s="85">
         <f t="shared" ca="1" si="13"/>
-        <v>1.2305555555555556</v>
+        <v>1.8333333333333333</v>
       </c>
       <c r="J48" s="16">
         <f t="shared" ca="1" si="14"/>
-        <v>449</v>
+        <v>671</v>
       </c>
       <c r="K48" s="16">
         <f t="shared" ca="1" si="15"/>
-        <v>14.966666666666667</v>
+        <v>22.366666666666667</v>
       </c>
       <c r="L48" s="87" t="s">
         <v>9</v>
@@ -40519,15 +40519,15 @@
       </c>
       <c r="I49" s="85">
         <f t="shared" ca="1" si="13"/>
-        <v>1.2305555555555556</v>
+        <v>1.8333333333333333</v>
       </c>
       <c r="J49" s="16">
         <f t="shared" ca="1" si="14"/>
-        <v>449</v>
+        <v>671</v>
       </c>
       <c r="K49" s="16">
         <f t="shared" ca="1" si="15"/>
-        <v>14.966666666666667</v>
+        <v>22.366666666666667</v>
       </c>
       <c r="L49" s="87" t="s">
         <v>9</v>
@@ -40598,15 +40598,15 @@
       </c>
       <c r="I50" s="85">
         <f t="shared" ca="1" si="13"/>
-        <v>1.2305555555555556</v>
+        <v>1.8333333333333333</v>
       </c>
       <c r="J50" s="16">
         <f t="shared" ca="1" si="14"/>
-        <v>449</v>
+        <v>671</v>
       </c>
       <c r="K50" s="16">
         <f t="shared" ca="1" si="15"/>
-        <v>14.966666666666667</v>
+        <v>22.366666666666667</v>
       </c>
       <c r="L50" s="87" t="s">
         <v>9</v>
@@ -40675,15 +40675,15 @@
       </c>
       <c r="I51" s="85">
         <f t="shared" ca="1" si="13"/>
-        <v>1.2138888888888888</v>
+        <v>1.8166666666666667</v>
       </c>
       <c r="J51" s="16">
         <f t="shared" ca="1" si="14"/>
-        <v>443</v>
+        <v>665</v>
       </c>
       <c r="K51" s="16">
         <f t="shared" ca="1" si="15"/>
-        <v>14.766666666666667</v>
+        <v>22.166666666666668</v>
       </c>
       <c r="L51" s="102" t="s">
         <v>708</v>
@@ -40818,15 +40818,15 @@
       </c>
       <c r="I52" s="85">
         <f t="shared" ca="1" si="13"/>
-        <v>1.2138888888888888</v>
+        <v>1.8166666666666667</v>
       </c>
       <c r="J52" s="16">
         <f t="shared" ca="1" si="14"/>
-        <v>443</v>
+        <v>665</v>
       </c>
       <c r="K52" s="16">
         <f t="shared" ca="1" si="15"/>
-        <v>14.766666666666667</v>
+        <v>22.166666666666668</v>
       </c>
       <c r="L52" s="102" t="s">
         <v>708</v>
@@ -40895,15 +40895,15 @@
       </c>
       <c r="I53" s="85">
         <f t="shared" ca="1" si="13"/>
-        <v>1.2138888888888888</v>
+        <v>1.8166666666666667</v>
       </c>
       <c r="J53" s="16">
         <f t="shared" ca="1" si="14"/>
-        <v>443</v>
+        <v>665</v>
       </c>
       <c r="K53" s="16">
         <f t="shared" ca="1" si="15"/>
-        <v>14.766666666666667</v>
+        <v>22.166666666666668</v>
       </c>
       <c r="L53" s="102" t="s">
         <v>708</v>
@@ -40972,15 +40972,15 @@
       </c>
       <c r="I54" s="85">
         <f t="shared" ca="1" si="13"/>
-        <v>1.2138888888888888</v>
+        <v>1.8166666666666667</v>
       </c>
       <c r="J54" s="16">
         <f t="shared" ca="1" si="14"/>
-        <v>443</v>
+        <v>665</v>
       </c>
       <c r="K54" s="16">
         <f t="shared" ca="1" si="15"/>
-        <v>14.766666666666667</v>
+        <v>22.166666666666668</v>
       </c>
       <c r="L54" s="102" t="s">
         <v>708</v>
@@ -41049,15 +41049,15 @@
       </c>
       <c r="I55" s="85">
         <f t="shared" ca="1" si="13"/>
-        <v>1.2138888888888888</v>
+        <v>1.8166666666666667</v>
       </c>
       <c r="J55" s="16">
         <f t="shared" ca="1" si="14"/>
-        <v>443</v>
+        <v>665</v>
       </c>
       <c r="K55" s="16">
         <f t="shared" ca="1" si="15"/>
-        <v>14.766666666666667</v>
+        <v>22.166666666666668</v>
       </c>
       <c r="L55" s="87" t="s">
         <v>9</v>
@@ -41126,15 +41126,15 @@
       </c>
       <c r="I56" s="85">
         <f t="shared" ca="1" si="13"/>
-        <v>1.2138888888888888</v>
+        <v>1.8166666666666667</v>
       </c>
       <c r="J56" s="16">
         <f t="shared" ca="1" si="14"/>
-        <v>443</v>
+        <v>665</v>
       </c>
       <c r="K56" s="16">
         <f t="shared" ca="1" si="15"/>
-        <v>14.766666666666667</v>
+        <v>22.166666666666668</v>
       </c>
       <c r="L56" s="87" t="s">
         <v>9</v>
@@ -41203,15 +41203,15 @@
       </c>
       <c r="I57" s="85">
         <f t="shared" ca="1" si="13"/>
-        <v>1.2138888888888888</v>
+        <v>1.8166666666666667</v>
       </c>
       <c r="J57" s="16">
         <f t="shared" ca="1" si="14"/>
-        <v>443</v>
+        <v>665</v>
       </c>
       <c r="K57" s="16">
         <f t="shared" ca="1" si="15"/>
-        <v>14.766666666666667</v>
+        <v>22.166666666666668</v>
       </c>
       <c r="L57" s="87" t="s">
         <v>9</v>
@@ -41280,15 +41280,15 @@
       </c>
       <c r="I58" s="85">
         <f t="shared" ca="1" si="13"/>
-        <v>1.2138888888888888</v>
+        <v>1.8166666666666667</v>
       </c>
       <c r="J58" s="16">
         <f t="shared" ca="1" si="14"/>
-        <v>443</v>
+        <v>665</v>
       </c>
       <c r="K58" s="16">
         <f t="shared" ca="1" si="15"/>
-        <v>14.766666666666667</v>
+        <v>22.166666666666668</v>
       </c>
       <c r="L58" s="87" t="s">
         <v>9</v>
@@ -41357,15 +41357,15 @@
       </c>
       <c r="I59" s="85">
         <f t="shared" ca="1" si="13"/>
-        <v>1.1916666666666667</v>
+        <v>1.7944444444444445</v>
       </c>
       <c r="J59" s="16">
         <f t="shared" ca="1" si="14"/>
-        <v>435</v>
+        <v>657</v>
       </c>
       <c r="K59" s="16">
         <f t="shared" ca="1" si="15"/>
-        <v>14.5</v>
+        <v>21.9</v>
       </c>
       <c r="L59" s="87" t="s">
         <v>9</v>
@@ -41434,15 +41434,15 @@
       </c>
       <c r="I60" s="101">
         <f t="shared" ca="1" si="13"/>
-        <v>1.1944444444444444</v>
+        <v>1.7972222222222223</v>
       </c>
       <c r="J60" s="95">
         <f t="shared" ca="1" si="14"/>
-        <v>436</v>
+        <v>658</v>
       </c>
       <c r="K60" s="95">
         <f t="shared" ca="1" si="15"/>
-        <v>14.533333333333333</v>
+        <v>21.933333333333334</v>
       </c>
       <c r="L60" s="102" t="s">
         <v>708</v>
@@ -41577,15 +41577,15 @@
       </c>
       <c r="I61" s="101">
         <f t="shared" ca="1" si="13"/>
-        <v>1.1944444444444444</v>
+        <v>1.7972222222222223</v>
       </c>
       <c r="J61" s="95">
         <f t="shared" ca="1" si="14"/>
-        <v>436</v>
+        <v>658</v>
       </c>
       <c r="K61" s="95">
         <f t="shared" ca="1" si="15"/>
-        <v>14.533333333333333</v>
+        <v>21.933333333333334</v>
       </c>
       <c r="L61" s="102" t="s">
         <v>708</v>
@@ -41654,15 +41654,15 @@
       </c>
       <c r="I62" s="101">
         <f t="shared" ca="1" si="13"/>
-        <v>1.1944444444444444</v>
+        <v>1.7972222222222223</v>
       </c>
       <c r="J62" s="95">
         <f t="shared" ca="1" si="14"/>
-        <v>436</v>
+        <v>658</v>
       </c>
       <c r="K62" s="95">
         <f t="shared" ca="1" si="15"/>
-        <v>14.533333333333333</v>
+        <v>21.933333333333334</v>
       </c>
       <c r="L62" s="102" t="s">
         <v>708</v>
@@ -41731,15 +41731,15 @@
       </c>
       <c r="I63" s="101">
         <f t="shared" ca="1" si="13"/>
-        <v>1.1944444444444444</v>
+        <v>1.7972222222222223</v>
       </c>
       <c r="J63" s="95">
         <f t="shared" ca="1" si="14"/>
-        <v>436</v>
+        <v>658</v>
       </c>
       <c r="K63" s="95">
         <f t="shared" ca="1" si="15"/>
-        <v>14.533333333333333</v>
+        <v>21.933333333333334</v>
       </c>
       <c r="L63" s="102" t="s">
         <v>708</v>
@@ -41874,15 +41874,15 @@
       </c>
       <c r="I64" s="101">
         <f t="shared" ca="1" si="13"/>
-        <v>1.3277777777777777</v>
+        <v>1.9305555555555556</v>
       </c>
       <c r="J64" s="95">
         <f t="shared" ca="1" si="14"/>
-        <v>485</v>
+        <v>707</v>
       </c>
       <c r="K64" s="95">
         <f t="shared" ca="1" si="15"/>
-        <v>16.166666666666668</v>
+        <v>23.566666666666666</v>
       </c>
       <c r="L64" s="102" t="s">
         <v>708</v>
@@ -41951,15 +41951,15 @@
       </c>
       <c r="I65" s="101">
         <f t="shared" ca="1" si="13"/>
-        <v>1.3277777777777777</v>
+        <v>1.9305555555555556</v>
       </c>
       <c r="J65" s="95">
         <f t="shared" ca="1" si="14"/>
-        <v>485</v>
+        <v>707</v>
       </c>
       <c r="K65" s="95">
         <f t="shared" ca="1" si="15"/>
-        <v>16.166666666666668</v>
+        <v>23.566666666666666</v>
       </c>
       <c r="L65" s="102" t="s">
         <v>708</v>
@@ -42028,15 +42028,15 @@
       </c>
       <c r="I66" s="101">
         <f t="shared" ca="1" si="13"/>
-        <v>1.1944444444444444</v>
+        <v>1.7972222222222223</v>
       </c>
       <c r="J66" s="95">
         <f t="shared" ca="1" si="14"/>
-        <v>436</v>
+        <v>658</v>
       </c>
       <c r="K66" s="95">
         <f t="shared" ca="1" si="15"/>
-        <v>14.533333333333333</v>
+        <v>21.933333333333334</v>
       </c>
       <c r="L66" s="102" t="s">
         <v>708</v>
@@ -42105,15 +42105,15 @@
       </c>
       <c r="I67" s="99">
         <f t="shared" ca="1" si="13"/>
-        <v>1.2555555555555555</v>
+        <v>1.8583333333333334</v>
       </c>
       <c r="J67" s="97">
         <f t="shared" ca="1" si="14"/>
-        <v>458</v>
+        <v>680</v>
       </c>
       <c r="K67" s="97">
         <f t="shared" ca="1" si="15"/>
-        <v>15.266666666666667</v>
+        <v>22.666666666666668</v>
       </c>
       <c r="L67" s="102" t="s">
         <v>708</v>
@@ -42248,15 +42248,15 @@
       </c>
       <c r="I68" s="99">
         <f t="shared" ca="1" si="13"/>
-        <v>1.2555555555555555</v>
+        <v>1.8583333333333334</v>
       </c>
       <c r="J68" s="97">
         <f t="shared" ca="1" si="14"/>
-        <v>458</v>
+        <v>680</v>
       </c>
       <c r="K68" s="97">
         <f t="shared" ca="1" si="15"/>
-        <v>15.266666666666667</v>
+        <v>22.666666666666668</v>
       </c>
       <c r="L68" s="102" t="s">
         <v>708</v>
@@ -42325,15 +42325,15 @@
       </c>
       <c r="I69" s="99">
         <f t="shared" ca="1" si="13"/>
-        <v>1.2555555555555555</v>
+        <v>1.8583333333333334</v>
       </c>
       <c r="J69" s="97">
         <f t="shared" ca="1" si="14"/>
-        <v>458</v>
+        <v>680</v>
       </c>
       <c r="K69" s="97">
         <f t="shared" ca="1" si="15"/>
-        <v>15.266666666666667</v>
+        <v>22.666666666666668</v>
       </c>
       <c r="L69" s="102" t="s">
         <v>708</v>
@@ -42468,15 +42468,15 @@
       </c>
       <c r="I70" s="99">
         <f t="shared" ca="1" si="13"/>
-        <v>1.2555555555555555</v>
+        <v>1.8583333333333334</v>
       </c>
       <c r="J70" s="97">
         <f t="shared" ca="1" si="14"/>
-        <v>458</v>
+        <v>680</v>
       </c>
       <c r="K70" s="97">
         <f t="shared" ca="1" si="15"/>
-        <v>15.266666666666667</v>
+        <v>22.666666666666668</v>
       </c>
       <c r="L70" s="102" t="s">
         <v>708</v>
@@ -42545,15 +42545,15 @@
       </c>
       <c r="I71" s="99">
         <f t="shared" ca="1" si="13"/>
-        <v>1.2277777777777779</v>
+        <v>1.8305555555555555</v>
       </c>
       <c r="J71" s="97">
         <f t="shared" ca="1" si="14"/>
-        <v>448</v>
+        <v>670</v>
       </c>
       <c r="K71" s="97">
         <f t="shared" ca="1" si="15"/>
-        <v>14.933333333333334</v>
+        <v>22.333333333333332</v>
       </c>
       <c r="L71" s="102" t="s">
         <v>708</v>
@@ -43094,15 +43094,15 @@
       </c>
       <c r="I2" s="5">
         <f t="shared" ref="I2:I20" ca="1" si="0">YEARFRAC(H2,TODAY())</f>
-        <v>1.5166666666666666</v>
+        <v>2.1194444444444445</v>
       </c>
       <c r="J2" s="5">
         <f ca="1">_xlfn.DAYS(TODAY(),H2)</f>
-        <v>553</v>
+        <v>775</v>
       </c>
       <c r="K2" s="5">
         <f t="shared" ref="K2:K20" ca="1" si="1">J2/30</f>
-        <v>18.433333333333334</v>
+        <v>25.833333333333332</v>
       </c>
       <c r="L2" s="340" t="s">
         <v>547</v>
@@ -43161,15 +43161,15 @@
       </c>
       <c r="I3" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>1.5166666666666666</v>
+        <v>2.1194444444444445</v>
       </c>
       <c r="J3" s="5">
         <f t="shared" ref="J3:J20" ca="1" si="3">_xlfn.DAYS(TODAY(),H3)</f>
-        <v>553</v>
+        <v>775</v>
       </c>
       <c r="K3" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>18.433333333333334</v>
+        <v>25.833333333333332</v>
       </c>
       <c r="L3" s="340" t="s">
         <v>547</v>
@@ -43228,15 +43228,15 @@
       </c>
       <c r="I4" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>1.5166666666666666</v>
+        <v>2.1194444444444445</v>
       </c>
       <c r="J4" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>553</v>
+        <v>775</v>
       </c>
       <c r="K4" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>18.433333333333334</v>
+        <v>25.833333333333332</v>
       </c>
       <c r="L4" s="340" t="s">
         <v>547</v>
@@ -43295,15 +43295,15 @@
       </c>
       <c r="I5" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>1.5166666666666666</v>
+        <v>2.1194444444444445</v>
       </c>
       <c r="J5" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>553</v>
+        <v>775</v>
       </c>
       <c r="K5" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>18.433333333333334</v>
+        <v>25.833333333333332</v>
       </c>
       <c r="L5" s="340" t="s">
         <v>547</v>
@@ -43362,15 +43362,15 @@
       </c>
       <c r="I6" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>1.5166666666666666</v>
+        <v>2.1194444444444445</v>
       </c>
       <c r="J6" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>553</v>
+        <v>775</v>
       </c>
       <c r="K6" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>18.433333333333334</v>
+        <v>25.833333333333332</v>
       </c>
       <c r="L6" s="340" t="s">
         <v>547</v>
@@ -43429,15 +43429,15 @@
       </c>
       <c r="I7" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>1.3444444444444446</v>
+        <v>1.9472222222222222</v>
       </c>
       <c r="J7" s="9">
         <f t="shared" ca="1" si="3"/>
-        <v>491</v>
+        <v>713</v>
       </c>
       <c r="K7" s="9">
         <f t="shared" ca="1" si="1"/>
-        <v>16.366666666666667</v>
+        <v>23.766666666666666</v>
       </c>
       <c r="L7" s="340" t="s">
         <v>547</v>
@@ -43496,15 +43496,15 @@
       </c>
       <c r="I8" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>1.3444444444444446</v>
+        <v>1.9472222222222222</v>
       </c>
       <c r="J8" s="9">
         <f t="shared" ca="1" si="3"/>
-        <v>491</v>
+        <v>713</v>
       </c>
       <c r="K8" s="9">
         <f t="shared" ca="1" si="1"/>
-        <v>16.366666666666667</v>
+        <v>23.766666666666666</v>
       </c>
       <c r="L8" s="340" t="s">
         <v>547</v>
@@ -43563,15 +43563,15 @@
       </c>
       <c r="I9" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>1.3444444444444446</v>
+        <v>1.9472222222222222</v>
       </c>
       <c r="J9" s="9">
         <f t="shared" ca="1" si="3"/>
-        <v>491</v>
+        <v>713</v>
       </c>
       <c r="K9" s="9">
         <f t="shared" ca="1" si="1"/>
-        <v>16.366666666666667</v>
+        <v>23.766666666666666</v>
       </c>
       <c r="L9" s="340" t="s">
         <v>547</v>
@@ -43630,15 +43630,15 @@
       </c>
       <c r="I10" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>1.3444444444444446</v>
+        <v>1.9472222222222222</v>
       </c>
       <c r="J10" s="9">
         <f t="shared" ca="1" si="3"/>
-        <v>491</v>
+        <v>713</v>
       </c>
       <c r="K10" s="9">
         <f t="shared" ca="1" si="1"/>
-        <v>16.366666666666667</v>
+        <v>23.766666666666666</v>
       </c>
       <c r="L10" s="340" t="s">
         <v>547</v>
@@ -43697,15 +43697,15 @@
       </c>
       <c r="I11" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>1.3444444444444446</v>
+        <v>1.9472222222222222</v>
       </c>
       <c r="J11" s="9">
         <f t="shared" ca="1" si="3"/>
-        <v>491</v>
+        <v>713</v>
       </c>
       <c r="K11" s="9">
         <f t="shared" ca="1" si="1"/>
-        <v>16.366666666666667</v>
+        <v>23.766666666666666</v>
       </c>
       <c r="L11" s="340" t="s">
         <v>547</v>
@@ -43764,15 +43764,15 @@
       </c>
       <c r="I12" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>1.3055555555555556</v>
+        <v>1.9083333333333334</v>
       </c>
       <c r="J12" s="9">
         <f t="shared" ca="1" si="3"/>
-        <v>477</v>
+        <v>699</v>
       </c>
       <c r="K12" s="9">
         <f t="shared" ca="1" si="1"/>
-        <v>15.9</v>
+        <v>23.3</v>
       </c>
       <c r="L12" s="340" t="s">
         <v>547</v>
@@ -43831,15 +43831,15 @@
       </c>
       <c r="I13" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>1.3055555555555556</v>
+        <v>1.9083333333333334</v>
       </c>
       <c r="J13" s="9">
         <f t="shared" ca="1" si="3"/>
-        <v>477</v>
+        <v>699</v>
       </c>
       <c r="K13" s="9">
         <f t="shared" ca="1" si="1"/>
-        <v>15.9</v>
+        <v>23.3</v>
       </c>
       <c r="L13" s="340" t="s">
         <v>547</v>
@@ -43898,15 +43898,15 @@
       </c>
       <c r="I14" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>1.3055555555555556</v>
+        <v>1.9083333333333334</v>
       </c>
       <c r="J14" s="9">
         <f t="shared" ca="1" si="3"/>
-        <v>477</v>
+        <v>699</v>
       </c>
       <c r="K14" s="9">
         <f t="shared" ca="1" si="1"/>
-        <v>15.9</v>
+        <v>23.3</v>
       </c>
       <c r="L14" s="340" t="s">
         <v>547</v>
@@ -43965,15 +43965,15 @@
       </c>
       <c r="I15" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>1.3444444444444446</v>
+        <v>1.9472222222222222</v>
       </c>
       <c r="J15" s="9">
         <f t="shared" ca="1" si="3"/>
-        <v>491</v>
+        <v>713</v>
       </c>
       <c r="K15" s="9">
         <f t="shared" ca="1" si="1"/>
-        <v>16.366666666666667</v>
+        <v>23.766666666666666</v>
       </c>
       <c r="L15" s="340" t="s">
         <v>547</v>
@@ -44032,15 +44032,15 @@
       </c>
       <c r="I16" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>1.3444444444444446</v>
+        <v>1.9472222222222222</v>
       </c>
       <c r="J16" s="9">
         <f t="shared" ca="1" si="3"/>
-        <v>491</v>
+        <v>713</v>
       </c>
       <c r="K16" s="9">
         <f t="shared" ca="1" si="1"/>
-        <v>16.366666666666667</v>
+        <v>23.766666666666666</v>
       </c>
       <c r="L16" s="340" t="s">
         <v>547</v>
@@ -44099,15 +44099,15 @@
       </c>
       <c r="I17" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>1.3444444444444446</v>
+        <v>1.9472222222222222</v>
       </c>
       <c r="J17" s="9">
         <f t="shared" ca="1" si="3"/>
-        <v>491</v>
+        <v>713</v>
       </c>
       <c r="K17" s="9">
         <f t="shared" ca="1" si="1"/>
-        <v>16.366666666666667</v>
+        <v>23.766666666666666</v>
       </c>
       <c r="L17" s="340" t="s">
         <v>547</v>
@@ -44166,15 +44166,15 @@
       </c>
       <c r="I18" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>1.5</v>
+        <v>2.1027777777777779</v>
       </c>
       <c r="J18" s="12">
         <f t="shared" ca="1" si="3"/>
-        <v>547</v>
+        <v>769</v>
       </c>
       <c r="K18" s="12">
         <f t="shared" ca="1" si="1"/>
-        <v>18.233333333333334</v>
+        <v>25.633333333333333</v>
       </c>
       <c r="L18" s="340" t="s">
         <v>547</v>
@@ -44233,15 +44233,15 @@
       </c>
       <c r="I19" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>1.5</v>
+        <v>2.1027777777777779</v>
       </c>
       <c r="J19" s="12">
         <f t="shared" ca="1" si="3"/>
-        <v>547</v>
+        <v>769</v>
       </c>
       <c r="K19" s="12">
         <f t="shared" ca="1" si="1"/>
-        <v>18.233333333333334</v>
+        <v>25.633333333333333</v>
       </c>
       <c r="L19" s="340" t="s">
         <v>547</v>
@@ -44300,15 +44300,15 @@
       </c>
       <c r="I20" s="107">
         <f t="shared" ca="1" si="0"/>
-        <v>1.3138888888888889</v>
+        <v>1.9166666666666667</v>
       </c>
       <c r="J20" s="107">
         <f t="shared" ca="1" si="3"/>
-        <v>480</v>
+        <v>702</v>
       </c>
       <c r="K20" s="107">
         <f t="shared" ca="1" si="1"/>
-        <v>16</v>
+        <v>23.4</v>
       </c>
       <c r="L20" s="340" t="s">
         <v>547</v>
@@ -44517,15 +44517,15 @@
       </c>
       <c r="I2" s="112">
         <f t="shared" ref="I2:I18" ca="1" si="0">YEARFRAC(H2,TODAY())</f>
-        <v>1.3277777777777777</v>
+        <v>1.9305555555555556</v>
       </c>
       <c r="J2" s="116">
         <f t="shared" ref="J2:J18" ca="1" si="1">_xlfn.DAYS(TODAY(),H2)</f>
-        <v>485</v>
+        <v>707</v>
       </c>
       <c r="K2" s="108">
         <f t="shared" ref="K2:K18" ca="1" si="2">J2/30</f>
-        <v>16.166666666666668</v>
+        <v>23.566666666666666</v>
       </c>
       <c r="L2" s="340" t="s">
         <v>547</v>
@@ -44586,15 +44586,15 @@
       </c>
       <c r="I3" s="112">
         <f t="shared" ca="1" si="0"/>
-        <v>1.3277777777777777</v>
+        <v>1.9305555555555556</v>
       </c>
       <c r="J3" s="116">
         <f t="shared" ca="1" si="1"/>
-        <v>485</v>
+        <v>707</v>
       </c>
       <c r="K3" s="108">
         <f t="shared" ca="1" si="2"/>
-        <v>16.166666666666668</v>
+        <v>23.566666666666666</v>
       </c>
       <c r="L3" s="340" t="s">
         <v>547</v>
@@ -44655,15 +44655,15 @@
       </c>
       <c r="I4" s="112">
         <f t="shared" ca="1" si="0"/>
-        <v>1.3277777777777777</v>
+        <v>1.9305555555555556</v>
       </c>
       <c r="J4" s="116">
         <f t="shared" ca="1" si="1"/>
-        <v>485</v>
+        <v>707</v>
       </c>
       <c r="K4" s="108">
         <f t="shared" ca="1" si="2"/>
-        <v>16.166666666666668</v>
+        <v>23.566666666666666</v>
       </c>
       <c r="L4" s="340" t="s">
         <v>547</v>
@@ -44724,15 +44724,15 @@
       </c>
       <c r="I5" s="112">
         <f t="shared" ca="1" si="0"/>
-        <v>1.3277777777777777</v>
+        <v>1.9305555555555556</v>
       </c>
       <c r="J5" s="116">
         <f t="shared" ca="1" si="1"/>
-        <v>485</v>
+        <v>707</v>
       </c>
       <c r="K5" s="108">
         <f t="shared" ca="1" si="2"/>
-        <v>16.166666666666668</v>
+        <v>23.566666666666666</v>
       </c>
       <c r="L5" s="340" t="s">
         <v>547</v>
@@ -44793,15 +44793,15 @@
       </c>
       <c r="I6" s="112">
         <f t="shared" ca="1" si="0"/>
-        <v>1.3277777777777777</v>
+        <v>1.9305555555555556</v>
       </c>
       <c r="J6" s="116">
         <f t="shared" ca="1" si="1"/>
-        <v>485</v>
+        <v>707</v>
       </c>
       <c r="K6" s="108">
         <f t="shared" ca="1" si="2"/>
-        <v>16.166666666666668</v>
+        <v>23.566666666666666</v>
       </c>
       <c r="L6" s="340" t="s">
         <v>547</v>
@@ -44862,15 +44862,15 @@
       </c>
       <c r="I7" s="112">
         <f t="shared" ca="1" si="0"/>
-        <v>1.3277777777777777</v>
+        <v>1.9305555555555556</v>
       </c>
       <c r="J7" s="116">
         <f t="shared" ca="1" si="1"/>
-        <v>485</v>
+        <v>707</v>
       </c>
       <c r="K7" s="108">
         <f t="shared" ca="1" si="2"/>
-        <v>16.166666666666668</v>
+        <v>23.566666666666666</v>
       </c>
       <c r="L7" s="340" t="s">
         <v>547</v>
@@ -44931,15 +44931,15 @@
       </c>
       <c r="I8" s="114">
         <f t="shared" ca="1" si="0"/>
-        <v>1.375</v>
+        <v>1.9777777777777779</v>
       </c>
       <c r="J8" s="117">
         <f t="shared" ca="1" si="1"/>
-        <v>501</v>
+        <v>723</v>
       </c>
       <c r="K8" s="109">
         <f t="shared" ca="1" si="2"/>
-        <v>16.7</v>
+        <v>24.1</v>
       </c>
       <c r="L8" s="340" t="s">
         <v>547</v>
@@ -45000,15 +45000,15 @@
       </c>
       <c r="I9" s="114">
         <f t="shared" ca="1" si="0"/>
-        <v>1.375</v>
+        <v>1.9777777777777779</v>
       </c>
       <c r="J9" s="117">
         <f t="shared" ca="1" si="1"/>
-        <v>501</v>
+        <v>723</v>
       </c>
       <c r="K9" s="109">
         <f t="shared" ca="1" si="2"/>
-        <v>16.7</v>
+        <v>24.1</v>
       </c>
       <c r="L9" s="340" t="s">
         <v>547</v>
@@ -45069,15 +45069,15 @@
       </c>
       <c r="I10" s="114">
         <f t="shared" ca="1" si="0"/>
-        <v>1.375</v>
+        <v>1.9777777777777779</v>
       </c>
       <c r="J10" s="117">
         <f t="shared" ca="1" si="1"/>
-        <v>501</v>
+        <v>723</v>
       </c>
       <c r="K10" s="109">
         <f t="shared" ca="1" si="2"/>
-        <v>16.7</v>
+        <v>24.1</v>
       </c>
       <c r="L10" s="340" t="s">
         <v>547</v>
@@ -45138,15 +45138,15 @@
       </c>
       <c r="I11" s="114">
         <f t="shared" ca="1" si="0"/>
-        <v>1.3333333333333333</v>
+        <v>1.9361111111111111</v>
       </c>
       <c r="J11" s="117">
         <f t="shared" ca="1" si="1"/>
-        <v>487</v>
+        <v>709</v>
       </c>
       <c r="K11" s="109">
         <f t="shared" ca="1" si="2"/>
-        <v>16.233333333333334</v>
+        <v>23.633333333333333</v>
       </c>
       <c r="L11" s="340" t="s">
         <v>547</v>
@@ -45207,15 +45207,15 @@
       </c>
       <c r="I12" s="114">
         <f t="shared" ca="1" si="0"/>
-        <v>1.3333333333333333</v>
+        <v>1.9361111111111111</v>
       </c>
       <c r="J12" s="117">
         <f t="shared" ca="1" si="1"/>
-        <v>487</v>
+        <v>709</v>
       </c>
       <c r="K12" s="109">
         <f t="shared" ca="1" si="2"/>
-        <v>16.233333333333334</v>
+        <v>23.633333333333333</v>
       </c>
       <c r="L12" s="340" t="s">
         <v>547</v>
@@ -45276,15 +45276,15 @@
       </c>
       <c r="I13" s="114">
         <f t="shared" ca="1" si="0"/>
-        <v>1.3333333333333333</v>
+        <v>1.9361111111111111</v>
       </c>
       <c r="J13" s="117">
         <f t="shared" ca="1" si="1"/>
-        <v>487</v>
+        <v>709</v>
       </c>
       <c r="K13" s="109">
         <f t="shared" ca="1" si="2"/>
-        <v>16.233333333333334</v>
+        <v>23.633333333333333</v>
       </c>
       <c r="L13" s="340" t="s">
         <v>547</v>
@@ -45345,15 +45345,15 @@
       </c>
       <c r="I14" s="114">
         <f t="shared" ca="1" si="0"/>
-        <v>1.3333333333333333</v>
+        <v>1.9361111111111111</v>
       </c>
       <c r="J14" s="117">
         <f t="shared" ca="1" si="1"/>
-        <v>487</v>
+        <v>709</v>
       </c>
       <c r="K14" s="109">
         <f t="shared" ca="1" si="2"/>
-        <v>16.233333333333334</v>
+        <v>23.633333333333333</v>
       </c>
       <c r="L14" s="340" t="s">
         <v>547</v>
@@ -45414,15 +45414,15 @@
       </c>
       <c r="I15" s="114">
         <f t="shared" ca="1" si="0"/>
-        <v>1.3333333333333333</v>
+        <v>1.9361111111111111</v>
       </c>
       <c r="J15" s="117">
         <f t="shared" ca="1" si="1"/>
-        <v>487</v>
+        <v>709</v>
       </c>
       <c r="K15" s="109">
         <f t="shared" ca="1" si="2"/>
-        <v>16.233333333333334</v>
+        <v>23.633333333333333</v>
       </c>
       <c r="L15" s="340" t="s">
         <v>547</v>
@@ -45483,15 +45483,15 @@
       </c>
       <c r="I16" s="114">
         <f t="shared" ca="1" si="0"/>
-        <v>1.3333333333333333</v>
+        <v>1.9361111111111111</v>
       </c>
       <c r="J16" s="117">
         <f t="shared" ca="1" si="1"/>
-        <v>487</v>
+        <v>709</v>
       </c>
       <c r="K16" s="109">
         <f t="shared" ca="1" si="2"/>
-        <v>16.233333333333334</v>
+        <v>23.633333333333333</v>
       </c>
       <c r="L16" s="340" t="s">
         <v>547</v>
@@ -45552,15 +45552,15 @@
       </c>
       <c r="I17" s="164">
         <f t="shared" ca="1" si="0"/>
-        <v>1.3916666666666666</v>
+        <v>1.9944444444444445</v>
       </c>
       <c r="J17" s="165">
         <f t="shared" ca="1" si="1"/>
-        <v>507</v>
+        <v>729</v>
       </c>
       <c r="K17" s="161">
         <f t="shared" ca="1" si="2"/>
-        <v>16.899999999999999</v>
+        <v>24.3</v>
       </c>
       <c r="L17" s="340" t="s">
         <v>547</v>
@@ -45621,15 +45621,15 @@
       </c>
       <c r="I18" s="164">
         <f t="shared" ca="1" si="0"/>
-        <v>1.3916666666666666</v>
+        <v>1.9944444444444445</v>
       </c>
       <c r="J18" s="165">
         <f t="shared" ca="1" si="1"/>
-        <v>507</v>
+        <v>729</v>
       </c>
       <c r="K18" s="161">
         <f t="shared" ca="1" si="2"/>
-        <v>16.899999999999999</v>
+        <v>24.3</v>
       </c>
       <c r="L18" s="340" t="s">
         <v>547</v>
@@ -45881,15 +45881,15 @@
       </c>
       <c r="I2" s="107">
         <f t="shared" ref="I2:I6" ca="1" si="0">YEARFRAC(H2,TODAY())</f>
-        <v>1.0249999999999999</v>
+        <v>1.6277777777777778</v>
       </c>
       <c r="J2" s="104">
         <f t="shared" ref="J2:J6" ca="1" si="1">_xlfn.DAYS(TODAY(),H2)</f>
-        <v>374</v>
+        <v>596</v>
       </c>
       <c r="K2" s="104">
         <f t="shared" ref="K2:K6" ca="1" si="2">J2/30</f>
-        <v>12.466666666666667</v>
+        <v>19.866666666666667</v>
       </c>
       <c r="L2" s="328" t="s">
         <v>14</v>
@@ -45977,15 +45977,15 @@
       </c>
       <c r="I3" s="107">
         <f t="shared" ca="1" si="0"/>
-        <v>1.0249999999999999</v>
+        <v>1.6277777777777778</v>
       </c>
       <c r="J3" s="104">
         <f t="shared" ca="1" si="1"/>
-        <v>374</v>
+        <v>596</v>
       </c>
       <c r="K3" s="104">
         <f t="shared" ca="1" si="2"/>
-        <v>12.466666666666667</v>
+        <v>19.866666666666667</v>
       </c>
       <c r="L3" s="328" t="s">
         <v>14</v>
@@ -46073,15 +46073,15 @@
       </c>
       <c r="I4" s="107">
         <f t="shared" ca="1" si="0"/>
-        <v>1.0249999999999999</v>
+        <v>1.6277777777777778</v>
       </c>
       <c r="J4" s="104">
         <f t="shared" ca="1" si="1"/>
-        <v>374</v>
+        <v>596</v>
       </c>
       <c r="K4" s="104">
         <f t="shared" ca="1" si="2"/>
-        <v>12.466666666666667</v>
+        <v>19.866666666666667</v>
       </c>
       <c r="L4" s="328" t="s">
         <v>14</v>
@@ -46169,15 +46169,15 @@
       </c>
       <c r="I5" s="107">
         <f t="shared" ca="1" si="0"/>
-        <v>1.0249999999999999</v>
+        <v>1.6277777777777778</v>
       </c>
       <c r="J5" s="104">
         <f t="shared" ca="1" si="1"/>
-        <v>374</v>
+        <v>596</v>
       </c>
       <c r="K5" s="104">
         <f t="shared" ca="1" si="2"/>
-        <v>12.466666666666667</v>
+        <v>19.866666666666667</v>
       </c>
       <c r="L5" s="328" t="s">
         <v>14</v>
@@ -46265,15 +46265,15 @@
       </c>
       <c r="I6" s="107">
         <f t="shared" ca="1" si="0"/>
-        <v>1.0249999999999999</v>
+        <v>1.6277777777777778</v>
       </c>
       <c r="J6" s="104">
         <f t="shared" ca="1" si="1"/>
-        <v>374</v>
+        <v>596</v>
       </c>
       <c r="K6" s="104">
         <f t="shared" ca="1" si="2"/>
-        <v>12.466666666666667</v>
+        <v>19.866666666666667</v>
       </c>
       <c r="L6" s="328" t="s">
         <v>14</v>
@@ -46361,15 +46361,15 @@
       </c>
       <c r="I7" s="107">
         <f ca="1">YEARFRAC(H7,TODAY())</f>
-        <v>1.0249999999999999</v>
+        <v>1.6277777777777778</v>
       </c>
       <c r="J7" s="104">
         <f ca="1">_xlfn.DAYS(TODAY(),H7)</f>
-        <v>374</v>
+        <v>596</v>
       </c>
       <c r="K7" s="104">
         <f ca="1">J7/30</f>
-        <v>12.466666666666667</v>
+        <v>19.866666666666667</v>
       </c>
       <c r="L7" s="328" t="s">
         <v>14</v>
@@ -46457,15 +46457,15 @@
       </c>
       <c r="I8" s="107">
         <f ca="1">YEARFRAC(H8,TODAY())</f>
-        <v>1.0249999999999999</v>
+        <v>1.6277777777777778</v>
       </c>
       <c r="J8" s="104">
         <f ca="1">_xlfn.DAYS(TODAY(),H8)</f>
-        <v>374</v>
+        <v>596</v>
       </c>
       <c r="K8" s="104">
         <f ca="1">J8/30</f>
-        <v>12.466666666666667</v>
+        <v>19.866666666666667</v>
       </c>
       <c r="L8" s="328" t="s">
         <v>14</v>
@@ -46553,15 +46553,15 @@
       </c>
       <c r="I9" s="323">
         <f t="shared" ref="I9:I32" ca="1" si="5">YEARFRAC(H9,TODAY())</f>
-        <v>1.05</v>
+        <v>1.6527777777777777</v>
       </c>
       <c r="J9" s="108">
         <f t="shared" ref="J9:J32" ca="1" si="6">_xlfn.DAYS(TODAY(),H9)</f>
-        <v>383</v>
+        <v>605</v>
       </c>
       <c r="K9" s="108">
         <f t="shared" ref="K9:K32" ca="1" si="7">J9/30</f>
-        <v>12.766666666666667</v>
+        <v>20.166666666666668</v>
       </c>
       <c r="L9" s="328" t="s">
         <v>14</v>
@@ -46649,15 +46649,15 @@
       </c>
       <c r="I10" s="323">
         <f t="shared" ca="1" si="5"/>
-        <v>1.05</v>
+        <v>1.6527777777777777</v>
       </c>
       <c r="J10" s="108">
         <f t="shared" ca="1" si="6"/>
-        <v>383</v>
+        <v>605</v>
       </c>
       <c r="K10" s="108">
         <f t="shared" ca="1" si="7"/>
-        <v>12.766666666666667</v>
+        <v>20.166666666666668</v>
       </c>
       <c r="L10" s="328" t="s">
         <v>14</v>
@@ -46745,15 +46745,15 @@
       </c>
       <c r="I11" s="323">
         <f t="shared" ca="1" si="5"/>
-        <v>1.05</v>
+        <v>1.6527777777777777</v>
       </c>
       <c r="J11" s="108">
         <f t="shared" ca="1" si="6"/>
-        <v>383</v>
+        <v>605</v>
       </c>
       <c r="K11" s="108">
         <f t="shared" ca="1" si="7"/>
-        <v>12.766666666666667</v>
+        <v>20.166666666666668</v>
       </c>
       <c r="L11" s="328" t="s">
         <v>14</v>
@@ -46841,15 +46841,15 @@
       </c>
       <c r="I12" s="323">
         <f t="shared" ca="1" si="5"/>
-        <v>1.05</v>
+        <v>1.6527777777777777</v>
       </c>
       <c r="J12" s="108">
         <f t="shared" ca="1" si="6"/>
-        <v>383</v>
+        <v>605</v>
       </c>
       <c r="K12" s="108">
         <f t="shared" ca="1" si="7"/>
-        <v>12.766666666666667</v>
+        <v>20.166666666666668</v>
       </c>
       <c r="L12" s="328" t="s">
         <v>14</v>
@@ -46937,15 +46937,15 @@
       </c>
       <c r="I13" s="323">
         <f t="shared" ca="1" si="5"/>
-        <v>1.05</v>
+        <v>1.6527777777777777</v>
       </c>
       <c r="J13" s="108">
         <f t="shared" ca="1" si="6"/>
-        <v>383</v>
+        <v>605</v>
       </c>
       <c r="K13" s="108">
         <f t="shared" ca="1" si="7"/>
-        <v>12.766666666666667</v>
+        <v>20.166666666666668</v>
       </c>
       <c r="L13" s="328" t="s">
         <v>14</v>
@@ -47033,15 +47033,15 @@
       </c>
       <c r="I14" s="323">
         <f t="shared" ref="I14:I18" ca="1" si="8">YEARFRAC(H14,TODAY())</f>
-        <v>1.05</v>
+        <v>1.6527777777777777</v>
       </c>
       <c r="J14" s="108">
         <f t="shared" ref="J14:J18" ca="1" si="9">_xlfn.DAYS(TODAY(),H14)</f>
-        <v>383</v>
+        <v>605</v>
       </c>
       <c r="K14" s="108">
         <f t="shared" ref="K14:K18" ca="1" si="10">J14/30</f>
-        <v>12.766666666666667</v>
+        <v>20.166666666666668</v>
       </c>
       <c r="L14" s="328" t="s">
         <v>14</v>
@@ -47129,15 +47129,15 @@
       </c>
       <c r="I15" s="323">
         <f t="shared" ca="1" si="8"/>
-        <v>1.05</v>
+        <v>1.6527777777777777</v>
       </c>
       <c r="J15" s="108">
         <f t="shared" ca="1" si="9"/>
-        <v>383</v>
+        <v>605</v>
       </c>
       <c r="K15" s="108">
         <f t="shared" ca="1" si="10"/>
-        <v>12.766666666666667</v>
+        <v>20.166666666666668</v>
       </c>
       <c r="L15" s="328" t="s">
         <v>14</v>
@@ -47225,15 +47225,15 @@
       </c>
       <c r="I16" s="323">
         <f t="shared" ca="1" si="8"/>
-        <v>1.05</v>
+        <v>1.6527777777777777</v>
       </c>
       <c r="J16" s="108">
         <f t="shared" ca="1" si="9"/>
-        <v>383</v>
+        <v>605</v>
       </c>
       <c r="K16" s="108">
         <f t="shared" ca="1" si="10"/>
-        <v>12.766666666666667</v>
+        <v>20.166666666666668</v>
       </c>
       <c r="L16" s="328" t="s">
         <v>14</v>
@@ -47321,15 +47321,15 @@
       </c>
       <c r="I17" s="323">
         <f t="shared" ca="1" si="8"/>
-        <v>1.05</v>
+        <v>1.6527777777777777</v>
       </c>
       <c r="J17" s="108">
         <f t="shared" ca="1" si="9"/>
-        <v>383</v>
+        <v>605</v>
       </c>
       <c r="K17" s="108">
         <f t="shared" ca="1" si="10"/>
-        <v>12.766666666666667</v>
+        <v>20.166666666666668</v>
       </c>
       <c r="L17" s="328" t="s">
         <v>14</v>
@@ -47417,15 +47417,15 @@
       </c>
       <c r="I18" s="323">
         <f t="shared" ca="1" si="8"/>
-        <v>1.05</v>
+        <v>1.6527777777777777</v>
       </c>
       <c r="J18" s="108">
         <f t="shared" ca="1" si="9"/>
-        <v>383</v>
+        <v>605</v>
       </c>
       <c r="K18" s="108">
         <f t="shared" ca="1" si="10"/>
-        <v>12.766666666666667</v>
+        <v>20.166666666666668</v>
       </c>
       <c r="L18" s="328" t="s">
         <v>14</v>
@@ -47511,15 +47511,15 @@
       </c>
       <c r="I19" s="379">
         <f t="shared" ref="I19:I23" ca="1" si="11">YEARFRAC(H19,TODAY())</f>
-        <v>1.0611111111111111</v>
+        <v>1.663888888888889</v>
       </c>
       <c r="J19" s="380">
         <f t="shared" ref="J19:J23" ca="1" si="12">_xlfn.DAYS(TODAY(),H19)</f>
-        <v>387</v>
+        <v>609</v>
       </c>
       <c r="K19" s="380">
         <f t="shared" ref="K19:K23" ca="1" si="13">J19/30</f>
-        <v>12.9</v>
+        <v>20.3</v>
       </c>
       <c r="L19" s="382" t="s">
         <v>547</v>
@@ -47607,15 +47607,15 @@
       </c>
       <c r="I20" s="323">
         <f t="shared" ca="1" si="11"/>
-        <v>1.0611111111111111</v>
+        <v>1.663888888888889</v>
       </c>
       <c r="J20" s="108">
         <f t="shared" ca="1" si="12"/>
-        <v>387</v>
+        <v>609</v>
       </c>
       <c r="K20" s="108">
         <f t="shared" ca="1" si="13"/>
-        <v>12.9</v>
+        <v>20.3</v>
       </c>
       <c r="L20" s="340" t="s">
         <v>547</v>
@@ -47703,15 +47703,15 @@
       </c>
       <c r="I21" s="323">
         <f t="shared" ca="1" si="11"/>
-        <v>1.0611111111111111</v>
+        <v>1.663888888888889</v>
       </c>
       <c r="J21" s="108">
         <f t="shared" ca="1" si="12"/>
-        <v>387</v>
+        <v>609</v>
       </c>
       <c r="K21" s="108">
         <f t="shared" ca="1" si="13"/>
-        <v>12.9</v>
+        <v>20.3</v>
       </c>
       <c r="L21" s="340" t="s">
         <v>547</v>
@@ -47799,15 +47799,15 @@
       </c>
       <c r="I22" s="323">
         <f t="shared" ca="1" si="11"/>
-        <v>1.0611111111111111</v>
+        <v>1.663888888888889</v>
       </c>
       <c r="J22" s="108">
         <f t="shared" ca="1" si="12"/>
-        <v>387</v>
+        <v>609</v>
       </c>
       <c r="K22" s="108">
         <f t="shared" ca="1" si="13"/>
-        <v>12.9</v>
+        <v>20.3</v>
       </c>
       <c r="L22" s="340" t="s">
         <v>547</v>
@@ -47895,15 +47895,15 @@
       </c>
       <c r="I23" s="323">
         <f t="shared" ca="1" si="11"/>
-        <v>1.0611111111111111</v>
+        <v>1.663888888888889</v>
       </c>
       <c r="J23" s="108">
         <f t="shared" ca="1" si="12"/>
-        <v>387</v>
+        <v>609</v>
       </c>
       <c r="K23" s="108">
         <f t="shared" ca="1" si="13"/>
-        <v>12.9</v>
+        <v>20.3</v>
       </c>
       <c r="L23" s="340" t="s">
         <v>547</v>
@@ -47991,15 +47991,15 @@
       </c>
       <c r="I24" s="323">
         <f t="shared" ca="1" si="5"/>
-        <v>1.05</v>
+        <v>1.6527777777777777</v>
       </c>
       <c r="J24" s="108">
         <f t="shared" ca="1" si="6"/>
-        <v>383</v>
+        <v>605</v>
       </c>
       <c r="K24" s="108">
         <f t="shared" ca="1" si="7"/>
-        <v>12.766666666666667</v>
+        <v>20.166666666666668</v>
       </c>
       <c r="L24" s="340" t="s">
         <v>547</v>
@@ -48087,15 +48087,15 @@
       </c>
       <c r="I25" s="323">
         <f t="shared" ca="1" si="5"/>
-        <v>1.05</v>
+        <v>1.6527777777777777</v>
       </c>
       <c r="J25" s="108">
         <f t="shared" ca="1" si="6"/>
-        <v>383</v>
+        <v>605</v>
       </c>
       <c r="K25" s="108">
         <f t="shared" ca="1" si="7"/>
-        <v>12.766666666666667</v>
+        <v>20.166666666666668</v>
       </c>
       <c r="L25" s="340" t="s">
         <v>547</v>
@@ -48183,15 +48183,15 @@
       </c>
       <c r="I26" s="323">
         <f t="shared" ca="1" si="5"/>
-        <v>1.05</v>
+        <v>1.6527777777777777</v>
       </c>
       <c r="J26" s="108">
         <f t="shared" ca="1" si="6"/>
-        <v>383</v>
+        <v>605</v>
       </c>
       <c r="K26" s="108">
         <f t="shared" ca="1" si="7"/>
-        <v>12.766666666666667</v>
+        <v>20.166666666666668</v>
       </c>
       <c r="L26" s="340" t="s">
         <v>547</v>
@@ -48279,15 +48279,15 @@
       </c>
       <c r="I27" s="323">
         <f t="shared" ca="1" si="5"/>
-        <v>1.05</v>
+        <v>1.6527777777777777</v>
       </c>
       <c r="J27" s="108">
         <f t="shared" ca="1" si="6"/>
-        <v>383</v>
+        <v>605</v>
       </c>
       <c r="K27" s="108">
         <f t="shared" ca="1" si="7"/>
-        <v>12.766666666666667</v>
+        <v>20.166666666666668</v>
       </c>
       <c r="L27" s="340" t="s">
         <v>547</v>
@@ -48375,15 +48375,15 @@
       </c>
       <c r="I28" s="323">
         <f t="shared" ca="1" si="5"/>
-        <v>1.05</v>
+        <v>1.6527777777777777</v>
       </c>
       <c r="J28" s="108">
         <f t="shared" ca="1" si="6"/>
-        <v>383</v>
+        <v>605</v>
       </c>
       <c r="K28" s="108">
         <f t="shared" ca="1" si="7"/>
-        <v>12.766666666666667</v>
+        <v>20.166666666666668</v>
       </c>
       <c r="L28" s="340" t="s">
         <v>547</v>
@@ -48471,15 +48471,15 @@
       </c>
       <c r="I29" s="323">
         <f t="shared" ca="1" si="5"/>
-        <v>1.0277777777777777</v>
+        <v>1.6305555555555555</v>
       </c>
       <c r="J29" s="108">
         <f t="shared" ca="1" si="6"/>
-        <v>375</v>
+        <v>597</v>
       </c>
       <c r="K29" s="108">
         <f t="shared" ca="1" si="7"/>
-        <v>12.5</v>
+        <v>19.899999999999999</v>
       </c>
       <c r="L29" s="340" t="s">
         <v>547</v>
@@ -48567,15 +48567,15 @@
       </c>
       <c r="I30" s="323">
         <f t="shared" ca="1" si="5"/>
-        <v>1.0277777777777777</v>
+        <v>1.6305555555555555</v>
       </c>
       <c r="J30" s="108">
         <f t="shared" ca="1" si="6"/>
-        <v>375</v>
+        <v>597</v>
       </c>
       <c r="K30" s="108">
         <f t="shared" ca="1" si="7"/>
-        <v>12.5</v>
+        <v>19.899999999999999</v>
       </c>
       <c r="L30" s="340" t="s">
         <v>547</v>
@@ -48663,15 +48663,15 @@
       </c>
       <c r="I31" s="323">
         <f t="shared" ca="1" si="5"/>
-        <v>1.0277777777777777</v>
+        <v>1.6305555555555555</v>
       </c>
       <c r="J31" s="108">
         <f t="shared" ca="1" si="6"/>
-        <v>375</v>
+        <v>597</v>
       </c>
       <c r="K31" s="108">
         <f t="shared" ca="1" si="7"/>
-        <v>12.5</v>
+        <v>19.899999999999999</v>
       </c>
       <c r="L31" s="340" t="s">
         <v>547</v>
@@ -48759,15 +48759,15 @@
       </c>
       <c r="I32" s="323">
         <f t="shared" ca="1" si="5"/>
-        <v>1.0277777777777777</v>
+        <v>1.6305555555555555</v>
       </c>
       <c r="J32" s="108">
         <f t="shared" ca="1" si="6"/>
-        <v>375</v>
+        <v>597</v>
       </c>
       <c r="K32" s="108">
         <f t="shared" ca="1" si="7"/>
-        <v>12.5</v>
+        <v>19.899999999999999</v>
       </c>
       <c r="L32" s="340" t="s">
         <v>547</v>
@@ -49051,15 +49051,15 @@
       </c>
       <c r="I44" s="107">
         <f t="shared" ref="I44:I48" ca="1" si="14">YEARFRAC(H44,TODAY())</f>
-        <v>1.0249999999999999</v>
+        <v>1.6277777777777778</v>
       </c>
       <c r="J44" s="104">
         <f t="shared" ref="J44:J48" ca="1" si="15">_xlfn.DAYS(TODAY(),H44)</f>
-        <v>374</v>
+        <v>596</v>
       </c>
       <c r="K44" s="104">
         <f t="shared" ref="K44:K48" ca="1" si="16">J44/30</f>
-        <v>12.466666666666667</v>
+        <v>19.866666666666667</v>
       </c>
       <c r="L44" s="328" t="s">
         <v>14</v>
@@ -49142,15 +49142,15 @@
       </c>
       <c r="I45" s="107">
         <f t="shared" ca="1" si="14"/>
-        <v>1.0249999999999999</v>
+        <v>1.6277777777777778</v>
       </c>
       <c r="J45" s="104">
         <f t="shared" ca="1" si="15"/>
-        <v>374</v>
+        <v>596</v>
       </c>
       <c r="K45" s="104">
         <f t="shared" ca="1" si="16"/>
-        <v>12.466666666666667</v>
+        <v>19.866666666666667</v>
       </c>
       <c r="L45" s="328" t="s">
         <v>14</v>
@@ -49219,15 +49219,15 @@
       </c>
       <c r="I46" s="107">
         <f t="shared" ca="1" si="14"/>
-        <v>1.0249999999999999</v>
+        <v>1.6277777777777778</v>
       </c>
       <c r="J46" s="104">
         <f t="shared" ca="1" si="15"/>
-        <v>374</v>
+        <v>596</v>
       </c>
       <c r="K46" s="104">
         <f t="shared" ca="1" si="16"/>
-        <v>12.466666666666667</v>
+        <v>19.866666666666667</v>
       </c>
       <c r="L46" s="328" t="s">
         <v>14</v>
@@ -49296,15 +49296,15 @@
       </c>
       <c r="I47" s="107">
         <f t="shared" ca="1" si="14"/>
-        <v>1.0249999999999999</v>
+        <v>1.6277777777777778</v>
       </c>
       <c r="J47" s="104">
         <f t="shared" ca="1" si="15"/>
-        <v>374</v>
+        <v>596</v>
       </c>
       <c r="K47" s="104">
         <f t="shared" ca="1" si="16"/>
-        <v>12.466666666666667</v>
+        <v>19.866666666666667</v>
       </c>
       <c r="L47" s="328" t="s">
         <v>14</v>
@@ -49373,15 +49373,15 @@
       </c>
       <c r="I48" s="107">
         <f t="shared" ca="1" si="14"/>
-        <v>1.0249999999999999</v>
+        <v>1.6277777777777778</v>
       </c>
       <c r="J48" s="104">
         <f t="shared" ca="1" si="15"/>
-        <v>374</v>
+        <v>596</v>
       </c>
       <c r="K48" s="104">
         <f t="shared" ca="1" si="16"/>
-        <v>12.466666666666667</v>
+        <v>19.866666666666667</v>
       </c>
       <c r="L48" s="328" t="s">
         <v>14</v>
@@ -49450,15 +49450,15 @@
       </c>
       <c r="I49" s="107">
         <f ca="1">YEARFRAC(H49,TODAY())</f>
-        <v>1.0249999999999999</v>
+        <v>1.6277777777777778</v>
       </c>
       <c r="J49" s="104">
         <f ca="1">_xlfn.DAYS(TODAY(),H49)</f>
-        <v>374</v>
+        <v>596</v>
       </c>
       <c r="K49" s="104">
         <f ca="1">J49/30</f>
-        <v>12.466666666666667</v>
+        <v>19.866666666666667</v>
       </c>
       <c r="L49" s="328" t="s">
         <v>14</v>
@@ -49541,15 +49541,15 @@
       </c>
       <c r="I50" s="107">
         <f ca="1">YEARFRAC(H50,TODAY())</f>
-        <v>1.0249999999999999</v>
+        <v>1.6277777777777778</v>
       </c>
       <c r="J50" s="104">
         <f ca="1">_xlfn.DAYS(TODAY(),H50)</f>
-        <v>374</v>
+        <v>596</v>
       </c>
       <c r="K50" s="104">
         <f ca="1">J50/30</f>
-        <v>12.466666666666667</v>
+        <v>19.866666666666667</v>
       </c>
       <c r="L50" s="328" t="s">
         <v>14</v>
@@ -49618,15 +49618,15 @@
       </c>
       <c r="I51" s="323">
         <f t="shared" ref="I51:I74" ca="1" si="19">YEARFRAC(H51,TODAY())</f>
-        <v>1.05</v>
+        <v>1.6527777777777777</v>
       </c>
       <c r="J51" s="108">
         <f t="shared" ref="J51:J74" ca="1" si="20">_xlfn.DAYS(TODAY(),H51)</f>
-        <v>383</v>
+        <v>605</v>
       </c>
       <c r="K51" s="108">
         <f t="shared" ref="K51:K74" ca="1" si="21">J51/30</f>
-        <v>12.766666666666667</v>
+        <v>20.166666666666668</v>
       </c>
       <c r="L51" s="328" t="s">
         <v>14</v>
@@ -49705,15 +49705,15 @@
       </c>
       <c r="I52" s="323">
         <f t="shared" ca="1" si="19"/>
-        <v>1.05</v>
+        <v>1.6527777777777777</v>
       </c>
       <c r="J52" s="108">
         <f t="shared" ca="1" si="20"/>
-        <v>383</v>
+        <v>605</v>
       </c>
       <c r="K52" s="108">
         <f t="shared" ca="1" si="21"/>
-        <v>12.766666666666667</v>
+        <v>20.166666666666668</v>
       </c>
       <c r="L52" s="328" t="s">
         <v>14</v>
@@ -49782,15 +49782,15 @@
       </c>
       <c r="I53" s="323">
         <f t="shared" ca="1" si="19"/>
-        <v>1.05</v>
+        <v>1.6527777777777777</v>
       </c>
       <c r="J53" s="108">
         <f t="shared" ca="1" si="20"/>
-        <v>383</v>
+        <v>605</v>
       </c>
       <c r="K53" s="108">
         <f t="shared" ca="1" si="21"/>
-        <v>12.766666666666667</v>
+        <v>20.166666666666668</v>
       </c>
       <c r="L53" s="328" t="s">
         <v>14</v>
@@ -49859,15 +49859,15 @@
       </c>
       <c r="I54" s="323">
         <f t="shared" ca="1" si="19"/>
-        <v>1.05</v>
+        <v>1.6527777777777777</v>
       </c>
       <c r="J54" s="108">
         <f t="shared" ca="1" si="20"/>
-        <v>383</v>
+        <v>605</v>
       </c>
       <c r="K54" s="108">
         <f t="shared" ca="1" si="21"/>
-        <v>12.766666666666667</v>
+        <v>20.166666666666668</v>
       </c>
       <c r="L54" s="328" t="s">
         <v>14</v>
@@ -49936,15 +49936,15 @@
       </c>
       <c r="I55" s="323">
         <f t="shared" ca="1" si="19"/>
-        <v>1.05</v>
+        <v>1.6527777777777777</v>
       </c>
       <c r="J55" s="108">
         <f t="shared" ca="1" si="20"/>
-        <v>383</v>
+        <v>605</v>
       </c>
       <c r="K55" s="108">
         <f t="shared" ca="1" si="21"/>
-        <v>12.766666666666667</v>
+        <v>20.166666666666668</v>
       </c>
       <c r="L55" s="328" t="s">
         <v>14</v>
@@ -50015,15 +50015,15 @@
       </c>
       <c r="I56" s="323">
         <f t="shared" ca="1" si="19"/>
-        <v>1.05</v>
+        <v>1.6527777777777777</v>
       </c>
       <c r="J56" s="108">
         <f t="shared" ca="1" si="20"/>
-        <v>383</v>
+        <v>605</v>
       </c>
       <c r="K56" s="108">
         <f t="shared" ca="1" si="21"/>
-        <v>12.766666666666667</v>
+        <v>20.166666666666668</v>
       </c>
       <c r="L56" s="328" t="s">
         <v>14</v>
@@ -50106,15 +50106,15 @@
       </c>
       <c r="I57" s="323">
         <f t="shared" ca="1" si="19"/>
-        <v>1.05</v>
+        <v>1.6527777777777777</v>
       </c>
       <c r="J57" s="108">
         <f t="shared" ca="1" si="20"/>
-        <v>383</v>
+        <v>605</v>
       </c>
       <c r="K57" s="108">
         <f t="shared" ca="1" si="21"/>
-        <v>12.766666666666667</v>
+        <v>20.166666666666668</v>
       </c>
       <c r="L57" s="328" t="s">
         <v>14</v>
@@ -50183,15 +50183,15 @@
       </c>
       <c r="I58" s="323">
         <f t="shared" ca="1" si="19"/>
-        <v>1.05</v>
+        <v>1.6527777777777777</v>
       </c>
       <c r="J58" s="108">
         <f t="shared" ca="1" si="20"/>
-        <v>383</v>
+        <v>605</v>
       </c>
       <c r="K58" s="108">
         <f t="shared" ca="1" si="21"/>
-        <v>12.766666666666667</v>
+        <v>20.166666666666668</v>
       </c>
       <c r="L58" s="328" t="s">
         <v>14</v>
@@ -50260,15 +50260,15 @@
       </c>
       <c r="I59" s="323">
         <f t="shared" ca="1" si="19"/>
-        <v>1.05</v>
+        <v>1.6527777777777777</v>
       </c>
       <c r="J59" s="108">
         <f t="shared" ca="1" si="20"/>
-        <v>383</v>
+        <v>605</v>
       </c>
       <c r="K59" s="108">
         <f t="shared" ca="1" si="21"/>
-        <v>12.766666666666667</v>
+        <v>20.166666666666668</v>
       </c>
       <c r="L59" s="328" t="s">
         <v>14</v>
@@ -50337,15 +50337,15 @@
       </c>
       <c r="I60" s="323">
         <f t="shared" ca="1" si="19"/>
-        <v>1.05</v>
+        <v>1.6527777777777777</v>
       </c>
       <c r="J60" s="108">
         <f t="shared" ca="1" si="20"/>
-        <v>383</v>
+        <v>605</v>
       </c>
       <c r="K60" s="108">
         <f t="shared" ca="1" si="21"/>
-        <v>12.766666666666667</v>
+        <v>20.166666666666668</v>
       </c>
       <c r="L60" s="566" t="s">
         <v>14</v>
@@ -50414,15 +50414,15 @@
       </c>
       <c r="I61" s="379">
         <f t="shared" ca="1" si="19"/>
-        <v>1.0611111111111111</v>
+        <v>1.663888888888889</v>
       </c>
       <c r="J61" s="380">
         <f t="shared" ca="1" si="20"/>
-        <v>387</v>
+        <v>609</v>
       </c>
       <c r="K61" s="380">
         <f t="shared" ca="1" si="21"/>
-        <v>12.9</v>
+        <v>20.3</v>
       </c>
       <c r="L61" s="340" t="s">
         <v>547</v>
@@ -50491,15 +50491,15 @@
       </c>
       <c r="I62" s="323">
         <f t="shared" ca="1" si="19"/>
-        <v>1.0611111111111111</v>
+        <v>1.663888888888889</v>
       </c>
       <c r="J62" s="108">
         <f t="shared" ca="1" si="20"/>
-        <v>387</v>
+        <v>609</v>
       </c>
       <c r="K62" s="108">
         <f t="shared" ca="1" si="21"/>
-        <v>12.9</v>
+        <v>20.3</v>
       </c>
       <c r="L62" s="340" t="s">
         <v>547</v>
@@ -50568,15 +50568,15 @@
       </c>
       <c r="I63" s="323">
         <f t="shared" ca="1" si="19"/>
-        <v>1.0611111111111111</v>
+        <v>1.663888888888889</v>
       </c>
       <c r="J63" s="108">
         <f t="shared" ca="1" si="20"/>
-        <v>387</v>
+        <v>609</v>
       </c>
       <c r="K63" s="108">
         <f t="shared" ca="1" si="21"/>
-        <v>12.9</v>
+        <v>20.3</v>
       </c>
       <c r="L63" s="340" t="s">
         <v>547</v>
@@ -50645,15 +50645,15 @@
       </c>
       <c r="I64" s="323">
         <f t="shared" ca="1" si="19"/>
-        <v>1.0611111111111111</v>
+        <v>1.663888888888889</v>
       </c>
       <c r="J64" s="108">
         <f t="shared" ca="1" si="20"/>
-        <v>387</v>
+        <v>609</v>
       </c>
       <c r="K64" s="108">
         <f t="shared" ca="1" si="21"/>
-        <v>12.9</v>
+        <v>20.3</v>
       </c>
       <c r="L64" s="340" t="s">
         <v>547</v>
@@ -50722,15 +50722,15 @@
       </c>
       <c r="I65" s="323">
         <f t="shared" ca="1" si="19"/>
-        <v>1.0611111111111111</v>
+        <v>1.663888888888889</v>
       </c>
       <c r="J65" s="108">
         <f t="shared" ca="1" si="20"/>
-        <v>387</v>
+        <v>609</v>
       </c>
       <c r="K65" s="108">
         <f t="shared" ca="1" si="21"/>
-        <v>12.9</v>
+        <v>20.3</v>
       </c>
       <c r="L65" s="340" t="s">
         <v>547</v>
@@ -50799,15 +50799,15 @@
       </c>
       <c r="I66" s="323">
         <f t="shared" ca="1" si="19"/>
-        <v>1.05</v>
+        <v>1.6527777777777777</v>
       </c>
       <c r="J66" s="108">
         <f t="shared" ca="1" si="20"/>
-        <v>383</v>
+        <v>605</v>
       </c>
       <c r="K66" s="108">
         <f t="shared" ca="1" si="21"/>
-        <v>12.766666666666667</v>
+        <v>20.166666666666668</v>
       </c>
       <c r="L66" s="340" t="s">
         <v>547</v>
@@ -50876,15 +50876,15 @@
       </c>
       <c r="I67" s="323">
         <f t="shared" ca="1" si="19"/>
-        <v>1.05</v>
+        <v>1.6527777777777777</v>
       </c>
       <c r="J67" s="108">
         <f t="shared" ca="1" si="20"/>
-        <v>383</v>
+        <v>605</v>
       </c>
       <c r="K67" s="108">
         <f t="shared" ca="1" si="21"/>
-        <v>12.766666666666667</v>
+        <v>20.166666666666668</v>
       </c>
       <c r="L67" s="340" t="s">
         <v>547</v>
@@ -50953,15 +50953,15 @@
       </c>
       <c r="I68" s="323">
         <f t="shared" ca="1" si="19"/>
-        <v>1.05</v>
+        <v>1.6527777777777777</v>
       </c>
       <c r="J68" s="108">
         <f t="shared" ca="1" si="20"/>
-        <v>383</v>
+        <v>605</v>
       </c>
       <c r="K68" s="108">
         <f t="shared" ca="1" si="21"/>
-        <v>12.766666666666667</v>
+        <v>20.166666666666668</v>
       </c>
       <c r="L68" s="340" t="s">
         <v>547</v>
@@ -51030,15 +51030,15 @@
       </c>
       <c r="I69" s="323">
         <f t="shared" ca="1" si="19"/>
-        <v>1.05</v>
+        <v>1.6527777777777777</v>
       </c>
       <c r="J69" s="108">
         <f t="shared" ca="1" si="20"/>
-        <v>383</v>
+        <v>605</v>
       </c>
       <c r="K69" s="108">
         <f t="shared" ca="1" si="21"/>
-        <v>12.766666666666667</v>
+        <v>20.166666666666668</v>
       </c>
       <c r="L69" s="340" t="s">
         <v>547</v>
@@ -51107,15 +51107,15 @@
       </c>
       <c r="I70" s="323">
         <f t="shared" ca="1" si="19"/>
-        <v>1.05</v>
+        <v>1.6527777777777777</v>
       </c>
       <c r="J70" s="108">
         <f t="shared" ca="1" si="20"/>
-        <v>383</v>
+        <v>605</v>
       </c>
       <c r="K70" s="108">
         <f t="shared" ca="1" si="21"/>
-        <v>12.766666666666667</v>
+        <v>20.166666666666668</v>
       </c>
       <c r="L70" s="340" t="s">
         <v>547</v>
@@ -51184,15 +51184,15 @@
       </c>
       <c r="I71" s="323">
         <f t="shared" ca="1" si="19"/>
-        <v>1.0277777777777777</v>
+        <v>1.6305555555555555</v>
       </c>
       <c r="J71" s="108">
         <f t="shared" ca="1" si="20"/>
-        <v>375</v>
+        <v>597</v>
       </c>
       <c r="K71" s="108">
         <f t="shared" ca="1" si="21"/>
-        <v>12.5</v>
+        <v>19.899999999999999</v>
       </c>
       <c r="L71" s="340" t="s">
         <v>547</v>
@@ -51261,15 +51261,15 @@
       </c>
       <c r="I72" s="323">
         <f t="shared" ca="1" si="19"/>
-        <v>1.0277777777777777</v>
+        <v>1.6305555555555555</v>
       </c>
       <c r="J72" s="108">
         <f t="shared" ca="1" si="20"/>
-        <v>375</v>
+        <v>597</v>
       </c>
       <c r="K72" s="108">
         <f t="shared" ca="1" si="21"/>
-        <v>12.5</v>
+        <v>19.899999999999999</v>
       </c>
       <c r="L72" s="340" t="s">
         <v>547</v>
@@ -51338,15 +51338,15 @@
       </c>
       <c r="I73" s="323">
         <f t="shared" ca="1" si="19"/>
-        <v>1.0277777777777777</v>
+        <v>1.6305555555555555</v>
       </c>
       <c r="J73" s="108">
         <f t="shared" ca="1" si="20"/>
-        <v>375</v>
+        <v>597</v>
       </c>
       <c r="K73" s="108">
         <f t="shared" ca="1" si="21"/>
-        <v>12.5</v>
+        <v>19.899999999999999</v>
       </c>
       <c r="L73" s="340" t="s">
         <v>547</v>
@@ -51415,15 +51415,15 @@
       </c>
       <c r="I74" s="323">
         <f t="shared" ca="1" si="19"/>
-        <v>1.0277777777777777</v>
+        <v>1.6305555555555555</v>
       </c>
       <c r="J74" s="108">
         <f t="shared" ca="1" si="20"/>
-        <v>375</v>
+        <v>597</v>
       </c>
       <c r="K74" s="108">
         <f t="shared" ca="1" si="21"/>
-        <v>12.5</v>
+        <v>19.899999999999999</v>
       </c>
       <c r="L74" s="340" t="s">
         <v>547</v>
